--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDE2EB3-EFF5-46F8-A9D0-F5B34D677621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0737E-5458-47E2-AC20-B29A8D02ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="4110" windowWidth="24540" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15255" yWindow="2745" windowWidth="24540" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="244">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,6 +917,18 @@
   </si>
   <si>
     <t>Bear_Punch_dam</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1433,6 +1441,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1457,32 +1489,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,11 +1809,11 @@
   <dimension ref="B2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1828,68 +1836,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -1898,37 +1906,37 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -1937,34 +1945,34 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1973,72 +1981,72 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="33"/>
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -2047,28 +2055,28 @@
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -2077,28 +2085,28 @@
         <v>5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="7" t="s">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="32"/>
+      <c r="C10" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -2107,150 +2115,150 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7" t="s">
+    </row>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32"/>
+      <c r="C11" s="19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="20">
         <v>3</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="12" t="s">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="7" t="s">
+    </row>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="36"/>
+      <c r="C15" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5">
         <v>2</v>
@@ -2259,29 +2267,37 @@
         <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>76</v>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="29"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="29"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="29"/>
+      <c r="E32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2313,817 +2329,817 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="30" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="24"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="24"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="24"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="24"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="24"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="24"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="24"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="24"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="24"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="28" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="32"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="32"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="32"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="32"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="32"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="32"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="33"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="32"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="32"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="37" t="s">
+      <c r="C74" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="24"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="32"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="32"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="32"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="32"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="37" t="s">
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="24"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="32"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="32"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="32"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="37" t="s">
+      <c r="C91" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C74" s="32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="32"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="32"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C92" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="37" t="s">
+      <c r="C100" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="37" t="s">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>197</v>
+      <c r="C109" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B0737E-5458-47E2-AC20-B29A8D02ECB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A3034B-4FE5-4435-A0BF-14F3D8E5FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="2745" windowWidth="24540" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="277">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -928,6 +928,138 @@
   </si>
   <si>
     <t>데스볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 구체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dax의 검정 구체 하나 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬래셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리 참격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발키리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐장판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 빛 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 단위에서 이속 버프 증가 -&gt; 버프쪽이랑 확인 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀쳐내기 후 벽같은거 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑 투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 결정한거 있다. -&gt; 머리 스턴 이펙트 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1813,22 +1945,21 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.875" style="1" bestFit="1" customWidth="1"/>
@@ -2283,20 +2414,204 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="1">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E31" s="37"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E32" s="37"/>
     </row>
   </sheetData>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A3034B-4FE5-4435-A0BF-14F3D8E5FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEEFFD-604E-477A-8AC2-2029C90EA3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18555" yWindow="3105" windowWidth="13650" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="캐릭터 스킬" sheetId="2" r:id="rId2"/>
+    <sheet name="스킬 리스트" sheetId="3" r:id="rId3"/>
+    <sheet name="리스트" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="443">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,14 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DAX_Darkness_ball7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Darkness_ball10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAX_Darkness_FlareSpirits1(white)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,532 +528,1186 @@
     <t>DAX_Field_00</t>
   </si>
   <si>
+    <t>일반 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_mPoint_Loop_0</t>
+  </si>
+  <si>
+    <t>DAX_Spiral_Ground_Aura_1</t>
+  </si>
+  <si>
+    <t>DAX_Stars_1</t>
+  </si>
+  <si>
+    <t>DAX_Vacuum_4</t>
+  </si>
+  <si>
+    <t>DAX_Vortex_00</t>
+  </si>
+  <si>
+    <t>DAX_Vortex_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Vortex_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloody</t>
+  </si>
+  <si>
+    <t>Casting</t>
+  </si>
+  <si>
+    <t>소환 이펙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun_Normal</t>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FX_SwordStab_01</t>
+  </si>
+  <si>
+    <t>맵 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_03</t>
+  </si>
+  <si>
+    <t>Boss_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_09</t>
+  </si>
+  <si>
+    <t>물기둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossHit_03</t>
+  </si>
+  <si>
+    <t>Fire meteors</t>
+  </si>
+  <si>
+    <t>Fire_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장풍 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰 바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참격 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningBolt01</t>
+  </si>
+  <si>
+    <t>참격 날라감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대 광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리 참격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperShild_01</t>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_01</t>
+  </si>
+  <si>
+    <t>곰 장풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>필드 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_06_PortalEffect</t>
+  </si>
+  <si>
+    <t>참격?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회염 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_09_CoreEnergySource(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>필드 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참격 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_11_BladeSlash(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>원래 그거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_22_DarkEnergyCore(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>장풍?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_25_BloodSpread</t>
+  </si>
+  <si>
+    <t>(Opt)Effect_29_SmokeArea(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>(Opt)Effect_32_LightningCloudStrike(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>(Opt)Effect_37_IceField(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>(Opt)Effect_42_WaveTide(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>원리 이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_48_WindStormField(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>(Opt)Effect_53_MassiveSwordSlash(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>(Opt)Effect_62_AscendOfEvil(ForEffectScene)</t>
+  </si>
+  <si>
+    <t>시전 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StormMod1 날파리 없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StormMod1 날파리 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_23_PulseExplode(ForEffectScene)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_63_SonicWave(ForEffectScene)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tornado_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Fire_Aero_Small_Explosion_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vfx_Hit_Fireball04_Orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_08_HeatWave(ForEffectScene)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_17_FireField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boom_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Fire_Pool_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Fire_Tile_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Fire_Flares_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Fire_Nova_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Fire_Explosion_High_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StormPunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear_EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_14_ParticleWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicRay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Ground_Fountain_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear_dount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear_summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데스볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 구체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dax의 검정 구체 하나 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬래셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리 참격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발키리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐장판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 빛 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 단위에서 이속 버프 증가 -&gt; 버프쪽이랑 확인 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀쳐내기 후 벽같은거 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑 투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 결정한거 있다. -&gt; 머리 스턴 이펙트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Darkness_ball_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Darkness_ball_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear_Dounut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear_Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 사용 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 피격 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 사용 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear_Summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketPunch_storm_01</t>
+  </si>
+  <si>
+    <t>부연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀치 대용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketPunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShadowBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이테스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령[공격]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--</t>
+  </si>
+  <si>
+    <t>정령[방어]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5--</t>
+  </si>
+  <si>
+    <t>정령[지원]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6--</t>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7--</t>
+  </si>
+  <si>
+    <t>보스 프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8--</t>
+  </si>
+  <si>
+    <t>쫄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9--</t>
+  </si>
+  <si>
+    <t>-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵[이동불]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵[오브젝트]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵[보스]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵[효과]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스킬 바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 대상 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 사전 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차후 프리팹 설졍 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 스킬에 피격 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹2</t>
+  </si>
+  <si>
+    <t>독 스킬에 피격 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹3</t>
+  </si>
+  <si>
+    <t>전기 스킬에 피격 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹4</t>
+  </si>
+  <si>
+    <t>불/폭발 스킬에 피격 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹5</t>
+  </si>
+  <si>
+    <t>독 디버프 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹6</t>
+  </si>
+  <si>
+    <t>출혈 디버프 시 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적 시 적용되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 프리팹8</t>
+  </si>
+  <si>
+    <t>이속 증가 시 적용되는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형 정령1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 스킬 사용하는 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형 정령2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 스킬 사용하는 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형 정령1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫄몹 접근 못하게 하는 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형 정령2</t>
+  </si>
+  <si>
+    <t>무적 버프 부여 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원형 정령1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 버프 부여 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원형 정령2</t>
+  </si>
+  <si>
+    <t>이속 증가 버프 부여 정령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰/불, 폭발 스킬 사용 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타천사/번개, 회오리 스킬 사용 보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 프리팹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 피격 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬2</t>
+  </si>
+  <si>
+    <t>전기 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬3</t>
+  </si>
+  <si>
+    <t>미지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬4</t>
+  </si>
+  <si>
+    <t>힐 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬5</t>
+  </si>
+  <si>
+    <t>쫄몹 접근 불가 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬6</t>
+  </si>
+  <si>
+    <t>얼음 스킬 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령 스킬7</t>
+  </si>
+  <si>
+    <t>정령 스킬8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이속 증가 버프 부여 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스킬 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스킬 2</t>
+  </si>
+  <si>
+    <t>보스 연계 스킬 2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스킬 3</t>
+  </si>
+  <si>
+    <t>보스 스킬 4</t>
+  </si>
+  <si>
+    <t>보스 스킬 5</t>
+  </si>
+  <si>
+    <t>보스 연계 스킬 2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 스킬 6</t>
+  </si>
+  <si>
+    <t>보스 연계 스킬 2-3</t>
+  </si>
+  <si>
+    <t>보스 스킬 7</t>
+  </si>
+  <si>
+    <t>보스 연계스킬 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령용 옮겨야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireDam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DAX_Hit_01</t>
-  </si>
-  <si>
-    <t>일반 피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_mPoint_Loop_0</t>
-  </si>
-  <si>
-    <t>DAX_Spiral_Ground_Aura_1</t>
-  </si>
-  <si>
-    <t>DAX_Stars_1</t>
-  </si>
-  <si>
-    <t>DAX_Vacuum_4</t>
-  </si>
-  <si>
-    <t>DAX_Vortex_00</t>
-  </si>
-  <si>
-    <t>DAX_Vortex_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Vortex_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloody</t>
-  </si>
-  <si>
-    <t>Casting</t>
-  </si>
-  <si>
-    <t>소환 이펙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlashDam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(OPT)Effect_34_PlaneHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽으로 사용 가능?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(OPT)Effect_76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패에 원으로 벽 가능?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StromDam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_15_LifeWall(ForEffectScene)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_21_BloodFloodSplash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_04_SwordSlashInit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolygonDemo03.Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에 쓸만한 시전 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolygonDemo04.Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 소환 이펙트로 가능?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolygonDemo09.Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 라인업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전 범위 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProtonMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 + 기타 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffblue </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사거리 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소악마 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_07_OuterRingEffect_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathSlasher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신 장판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil_Dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death_Dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 데미지 [소리]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeamupCloudGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlowZoneGreen</t>
+  </si>
+  <si>
+    <t>회복용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel_heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel_Heal_Hit</t>
+  </si>
+  <si>
+    <t>Spin_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Opt)Effect_11_DevilBladeSlash_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Spawn</t>
-  </si>
-  <si>
-    <t>Stun_Normal</t>
-  </si>
-  <si>
-    <t>디버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FX_Heal_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FX_SwordSlash_01</t>
-  </si>
-  <si>
-    <t>FX_SwordStab_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FX_Wind_01</t>
-  </si>
-  <si>
-    <t>맵 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1synergy_01</t>
-  </si>
-  <si>
-    <t>장판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_03</t>
-  </si>
-  <si>
-    <t>Boss_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기둥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_09</t>
-  </si>
-  <si>
-    <t>물기둥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossHit_03</t>
-  </si>
-  <si>
-    <t>곰 피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire meteors</t>
-  </si>
-  <si>
-    <t>Fire_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장풍 버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰 바닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit_21</t>
-  </si>
-  <si>
-    <t>참격 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightningBolt01</t>
-  </si>
-  <si>
-    <t>참격 날라감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대 광선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_04_SwordSlashInit</t>
-  </si>
-  <si>
-    <t>Spin_01</t>
-  </si>
-  <si>
-    <t>회오리 참격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SuperShild_01</t>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword_01</t>
-  </si>
-  <si>
-    <t>곰 장풍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZZZ</t>
-  </si>
-  <si>
-    <t>필드 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_06_PortalEffect</t>
-  </si>
-  <si>
-    <t>참격?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_07_OuterRingEffect_2</t>
-  </si>
-  <si>
-    <t>회염 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_09_CoreEnergySource(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>필드 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_11_DevilBladeSlash_2</t>
-  </si>
-  <si>
-    <t>참격 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_11_BladeSlash(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>원래 그거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_15_LifeWall(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>불 고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_21_BloodFloodSplash</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_22_DarkEnergyCore(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>장풍?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_25_BloodSpread</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_29_SmokeArea(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_32_LightningCloudStrike(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_37_IceField(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_42_WaveTide(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>원리 이용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_48_WindStormField(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_53_MassiveSwordSlash(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>(Opt)Effect_62_AscendOfEvil(ForEffectScene)</t>
-  </si>
-  <si>
-    <t>시전 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StormMod1 날파리 없이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StormMod1 날파리 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_23_PulseExplode(ForEffectScene)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_63_SonicWave(ForEffectScene)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tornado_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Aero_Small_Explosion_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vfx_Hit_Fireball04_Orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_08_HeatWave(ForEffectScene)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_17_FireField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boom_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Pool_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Tile_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Flares_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Nova_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Explosion_High_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flaming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StormPunch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bear_EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Opt)Effect_14_ParticleWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicRay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Ground_Fountain_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bear_dount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bear_summon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Fire_Aero_Small_Explosion_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bear_Punch_dam</t>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악마 정령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검정 구체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dax의 검정 구체 하나 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬래셔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회오리 참격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발키리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마녀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골렘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암살자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피드업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2타일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐장판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필드 빛 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타일 단위에서 이속 버프 증가 -&gt; 버프쪽이랑 확인 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넉백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀쳐내기 후 벽같은거 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랑 투사체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에 결정한거 있다. -&gt; 머리 스턴 이펙트 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchSpeed</t>
+  </si>
+  <si>
+    <t>Witch_Speed_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1715,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,13 +1731,49 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="31">
@@ -1423,66 +2107,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1491,13 +2143,35 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1506,7 +2180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1573,29 +2247,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1621,7 +2280,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1940,12 +2647,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1967,21 +2674,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>0</v>
@@ -2011,17 +2718,17 @@
         <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -2052,17 +2759,17 @@
         <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
+      </c>
+      <c r="N4" s="1">
+        <v>972002</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -2091,14 +2798,14 @@
         <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>239</v>
+        <v>214</v>
+      </c>
+      <c r="N5" s="1">
+        <v>972001</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -2127,11 +2834,11 @@
         <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="33"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -2160,17 +2867,17 @@
         <v>39</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2202,7 +2909,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -2232,7 +2939,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="15" t="s">
         <v>45</v>
       </c>
@@ -2262,7 +2969,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="19" t="s">
         <v>52</v>
       </c>
@@ -2292,7 +2999,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2324,7 +3031,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="15" t="s">
         <v>63</v>
       </c>
@@ -2354,7 +3061,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="15" t="s">
         <v>69</v>
       </c>
@@ -2384,7 +3091,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="36"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
         <v>72</v>
       </c>
@@ -2415,13 +3122,13 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E16" s="1">
         <v>18</v>
@@ -2430,30 +3137,30 @@
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
@@ -2462,30 +3169,30 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
@@ -2494,62 +3201,62 @@
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -2558,30 +3265,30 @@
         <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="E21" s="1">
         <v>15</v>
@@ -2593,26 +3300,26 @@
         <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="37"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="37"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="37"/>
+      <c r="E32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2630,831 +3337,911 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:C109"/>
+  <dimension ref="B1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="23"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="45" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="24"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="24"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="C60" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="23"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="23"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="23"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="23"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="24"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="24"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="24"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="C82" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="24"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="24"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="24"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="24" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="24"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="24"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="24"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="24"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="24"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="24"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="24"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="28" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>196</v>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="48" t="s">
+        <v>417</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>428</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>429</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3464,4 +4251,956 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FA2969-CC89-498D-B699-59D681CD369F}">
+  <dimension ref="B1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.75" style="33" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="1">
+        <v>971014</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>970</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="1">
+        <v>971015</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>971</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="1">
+        <v>971016</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>972</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="1">
+        <v>971017</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>973</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="1">
+        <v>971018</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>970018</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>972001</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>972002</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>971019</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>972003</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>921003</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>921004</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>921005</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>923003</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>923004</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>923005</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>923006</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853732A2-D0FD-4838-8684-FC0906CF08E4}">
+  <dimension ref="B1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.25" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K3" s="40">
+        <v>911001</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-12</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="40">
+        <v>912001</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="K5" s="40">
+        <v>912002</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="40">
+        <v>912003</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="40">
+        <v>912004</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="40">
+        <v>912005</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-32</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="40">
+        <v>912006</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="40">
+        <v>912007</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="40">
+        <v>912008</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="40">
+        <v>921001</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="40">
+        <v>921002</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="40">
+        <v>922001</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="N14" s="42"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="40">
+        <v>922002</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="40">
+        <v>923001</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-70</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="40">
+        <v>923002</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-71</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="40">
+        <v>931001</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E19" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-72</v>
+      </c>
+      <c r="K19" s="40">
+        <v>931002</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E20" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-73</v>
+      </c>
+      <c r="K20" s="40">
+        <v>932001</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="N20" s="42"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K21" s="40">
+        <v>970001</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="N21" s="42"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K22" s="40">
+        <v>970002</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K23" s="40">
+        <v>970003</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K24" s="40">
+        <v>970004</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="M24" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K25" s="40">
+        <v>970005</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M25" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="40">
+        <v>970006</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K27" s="40">
+        <v>970008</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="N27" s="42"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K28" s="40">
+        <v>970009</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="N28" s="42"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K29" s="40">
+        <v>971001</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K30" s="40">
+        <v>971002</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M30" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="N30" s="42"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K31" s="40">
+        <v>971003</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="M31" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="N31" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K32" s="40">
+        <v>971004</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="N32" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K33" s="40">
+        <v>971005</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K34" s="40">
+        <v>971006</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K35" s="40">
+        <v>971007</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="N35" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEEFFD-604E-477A-8AC2-2029C90EA3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A15B2F0-7D2D-4CD3-AAF1-CE60DA1947B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18555" yWindow="3105" windowWidth="13650" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2180,7 +2180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2310,6 +2310,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2330,6 +2333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3351,7 +3357,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>194</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3359,7 +3365,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3367,31 +3373,31 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>260</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -3399,19 +3405,19 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="46" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -3419,19 +3425,19 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -3439,7 +3445,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="46" t="s">
         <v>200</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -3447,19 +3453,19 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C16" s="30"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="46" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="30"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="46" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -3467,7 +3473,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="46" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -3475,13 +3481,13 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="46" t="s">
         <v>210</v>
       </c>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="46" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -3489,13 +3495,13 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="46" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="46" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -3503,7 +3509,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="46" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -3511,7 +3517,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="46" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -3519,7 +3525,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="46" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -3527,7 +3533,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="46" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -3535,13 +3541,13 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="46" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -3549,7 +3555,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -3557,13 +3563,13 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="46" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="46" t="s">
         <v>218</v>
       </c>
       <c r="C32" s="23" t="s">
@@ -3571,7 +3577,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="46" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -3579,7 +3585,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="46" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -3587,13 +3593,13 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="46" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="46" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -3601,7 +3607,7 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="46" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -3609,13 +3615,13 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="46" t="s">
         <v>118</v>
       </c>
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="46" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -3623,13 +3629,13 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="46" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="46" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -3637,7 +3643,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="46" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="23" t="s">
@@ -3645,7 +3651,7 @@
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="46" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -3653,7 +3659,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="46" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="23" t="s">
@@ -3661,7 +3667,7 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="46" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -3669,7 +3675,7 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="46" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -3677,7 +3683,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="46" t="s">
         <v>130</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -3685,7 +3691,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -3693,7 +3699,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="46" t="s">
         <v>397</v>
       </c>
       <c r="C49" s="23" t="s">
@@ -3701,13 +3707,13 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="46" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="46" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -3715,19 +3721,19 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="46" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="46" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="23"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="46" t="s">
         <v>137</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -3735,7 +3741,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="46" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -3743,7 +3749,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="46" t="s">
         <v>139</v>
       </c>
       <c r="C56" s="23" t="s">
@@ -3751,7 +3757,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="46" t="s">
         <v>202</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -3759,7 +3765,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="46" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -3767,7 +3773,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="46" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="23" t="s">
@@ -3775,7 +3781,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="46" t="s">
         <v>211</v>
       </c>
       <c r="C60" s="23" t="s">
@@ -3783,7 +3789,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="46" t="s">
         <v>219</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -3791,7 +3797,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="46" t="s">
         <v>436</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -3799,7 +3805,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="46" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="23" t="s">
@@ -3807,7 +3813,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="46" t="s">
         <v>437</v>
       </c>
       <c r="C64" s="23" t="s">
@@ -3815,19 +3821,19 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="46" t="s">
         <v>145</v>
       </c>
       <c r="C65" s="23"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="46" t="s">
         <v>438</v>
       </c>
       <c r="C66" s="23"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="46" t="s">
         <v>439</v>
       </c>
       <c r="C67" s="23" t="s">
@@ -3835,7 +3841,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="46" t="s">
         <v>440</v>
       </c>
       <c r="C68" s="23" t="s">
@@ -3843,7 +3849,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="46" t="s">
         <v>205</v>
       </c>
       <c r="C69" s="23" t="s">
@@ -3851,13 +3857,13 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="46" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="46" t="s">
         <v>148</v>
       </c>
       <c r="C71" s="23" t="s">
@@ -3865,7 +3871,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="46" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="23" t="s">
@@ -3873,7 +3879,7 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="46" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="23" t="s">
@@ -3881,7 +3887,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="46" t="s">
         <v>196</v>
       </c>
       <c r="C74" s="23" t="s">
@@ -3889,13 +3895,13 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="46" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="23"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="46" t="s">
         <v>212</v>
       </c>
       <c r="C76" s="23" t="s">
@@ -3903,7 +3909,7 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="46" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="23" t="s">
@@ -3911,7 +3917,7 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="46" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="23" t="s">
@@ -3919,7 +3925,7 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="46" t="s">
         <v>398</v>
       </c>
       <c r="C79" s="23" t="s">
@@ -3927,7 +3933,7 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="46" t="s">
         <v>159</v>
       </c>
       <c r="C80" s="23" t="s">
@@ -3935,13 +3941,13 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="46" t="s">
         <v>160</v>
       </c>
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="46" t="s">
         <v>216</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -3949,7 +3955,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="46" t="s">
         <v>434</v>
       </c>
       <c r="C83" s="23" t="s">
@@ -3957,7 +3963,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="46" t="s">
         <v>164</v>
       </c>
       <c r="C84" s="23" t="s">
@@ -3965,7 +3971,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="46" t="s">
         <v>166</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -3973,7 +3979,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="46" t="s">
         <v>199</v>
       </c>
       <c r="C86" s="23" t="s">
@@ -3981,7 +3987,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="46" t="s">
         <v>168</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -3989,7 +3995,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C88" s="23" t="s">
@@ -3997,7 +4003,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="46" t="s">
         <v>170</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -4005,7 +4011,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="46" t="s">
         <v>422</v>
       </c>
       <c r="C90" s="23" t="s">
@@ -4013,7 +4019,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="46" t="s">
         <v>203</v>
       </c>
       <c r="C91" s="23" t="s">
@@ -4021,7 +4027,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="46" t="s">
         <v>173</v>
       </c>
       <c r="C92" s="23" t="s">
@@ -4029,7 +4035,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="46" t="s">
         <v>435</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -4037,7 +4043,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="46" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="23" t="s">
@@ -4045,7 +4051,7 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="46" t="s">
         <v>215</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -4053,7 +4059,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="46" t="s">
         <v>406</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -4061,7 +4067,7 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="46" t="s">
         <v>204</v>
       </c>
       <c r="C97" s="23" t="s">
@@ -4069,7 +4075,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="46" t="s">
         <v>407</v>
       </c>
       <c r="C98" s="23" t="s">
@@ -4077,7 +4083,7 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="46" t="s">
         <v>179</v>
       </c>
       <c r="C99" s="23" t="s">
@@ -4085,7 +4091,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="46" t="s">
         <v>197</v>
       </c>
       <c r="C100" s="23" t="s">
@@ -4093,7 +4099,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="46" t="s">
         <v>181</v>
       </c>
       <c r="C101" s="23" t="s">
@@ -4101,7 +4107,7 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="46" t="s">
         <v>182</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4109,7 +4115,7 @@
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="46" t="s">
         <v>183</v>
       </c>
       <c r="C103" s="23" t="s">
@@ -4117,7 +4123,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="45" t="s">
+      <c r="B104" s="46" t="s">
         <v>184</v>
       </c>
       <c r="C104" s="23" t="s">
@@ -4125,7 +4131,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="46" t="s">
         <v>185</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -4133,7 +4139,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="46" t="s">
         <v>187</v>
       </c>
       <c r="C106" s="23" t="s">
@@ -4141,7 +4147,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="46" t="s">
         <v>188</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -4149,7 +4155,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="46" t="s">
         <v>189</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -4157,7 +4163,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="46" t="s">
         <v>198</v>
       </c>
       <c r="C109" s="23" t="s">
@@ -4165,7 +4171,7 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" s="46" t="s">
+      <c r="B110" s="47" t="s">
         <v>400</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -4173,7 +4179,7 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="47" t="s">
         <v>402</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -4181,7 +4187,7 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="46" t="s">
+      <c r="B112" s="47" t="s">
         <v>409</v>
       </c>
       <c r="C112" s="23" t="s">
@@ -4189,7 +4195,7 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="47" t="s">
         <v>411</v>
       </c>
       <c r="C113" s="23" t="s">
@@ -4197,7 +4203,7 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="47" t="s">
         <v>413</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -4205,7 +4211,7 @@
       </c>
     </row>
     <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="47" t="s">
+      <c r="B115" s="48" t="s">
         <v>415</v>
       </c>
       <c r="C115" s="24" t="s">
@@ -4213,7 +4219,7 @@
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="49" t="s">
         <v>417</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4221,7 +4227,7 @@
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="48" t="s">
+      <c r="B117" s="49" t="s">
         <v>419</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4258,7 +4264,7 @@
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4281,14 +4287,14 @@
       <c r="C2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4299,12 +4305,13 @@
       <c r="C3" t="s">
         <v>269</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>971014</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="43" t="s">
         <v>263</v>
       </c>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -4313,12 +4320,13 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>971015</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="43" t="s">
         <v>264</v>
       </c>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -4327,12 +4335,13 @@
       <c r="C5" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>971016</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="43" t="s">
         <v>271</v>
       </c>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -4341,12 +4350,13 @@
       <c r="C6" t="s">
         <v>267</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>971017</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="43" t="s">
         <v>275</v>
       </c>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -4355,126 +4365,133 @@
       <c r="C7" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>971018</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="51" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>970018</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="51" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <v>972001</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="43" t="s">
         <v>396</v>
       </c>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>972002</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="43" t="s">
         <v>399</v>
       </c>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>971019</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="51" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>972003</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="43" t="s">
         <v>405</v>
       </c>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>921003</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="51" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>921004</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="51" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>921005</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="51" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>923003</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="43" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="1">
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="3">
         <v>923004</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="43" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="1">
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="3">
         <v>923005</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="43" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="1">
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="3">
         <v>923006</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="43" t="s">
         <v>442</v>
       </c>
+      <c r="G19" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A15B2F0-7D2D-4CD3-AAF1-CE60DA1947B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B264D70-8714-43C5-AD90-45D5416EFC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18555" yWindow="3105" windowWidth="13650" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20625" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -1750,7 +1750,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1775,6 +1775,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -2180,7 +2186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2256,18 +2262,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2280,62 +2328,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2653,12 +2668,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2680,17 +2695,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
@@ -2734,10 +2749,10 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2775,8 +2790,8 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2811,8 +2826,8 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2844,8 +2859,8 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="28"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2883,7 +2898,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2915,7 +2930,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -2945,7 +2960,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="15" t="s">
         <v>45</v>
       </c>
@@ -2975,7 +2990,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="19" t="s">
         <v>52</v>
       </c>
@@ -3005,7 +3020,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3037,7 +3052,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="15" t="s">
         <v>63</v>
       </c>
@@ -3067,7 +3082,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="15" t="s">
         <v>69</v>
       </c>
@@ -3097,7 +3112,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="16" t="s">
         <v>72</v>
       </c>
@@ -3319,13 +3334,13 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="32"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="32"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="32"/>
+      <c r="E32" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3357,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>194</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3365,7 +3380,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -3373,31 +3388,31 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="36" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="36" t="s">
         <v>260</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="36" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -3405,19 +3420,19 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -3425,19 +3440,19 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="36" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -3445,27 +3460,27 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="44" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="44"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="36" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -3473,7 +3488,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="36" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -3481,13 +3496,13 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="36" t="s">
         <v>210</v>
       </c>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="36" t="s">
         <v>208</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -3495,13 +3510,13 @@
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="36" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -3509,7 +3524,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="36" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -3517,7 +3532,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -3525,7 +3540,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -3533,7 +3548,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -3541,13 +3556,13 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="36" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -3555,7 +3570,7 @@
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="36" t="s">
         <v>105</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -3563,13 +3578,13 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="36" t="s">
         <v>218</v>
       </c>
       <c r="C32" s="23" t="s">
@@ -3577,7 +3592,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -3585,7 +3600,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -3593,13 +3608,13 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="23" t="s">
@@ -3607,7 +3622,7 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -3615,13 +3630,13 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="36" t="s">
         <v>118</v>
       </c>
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -3629,13 +3644,13 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="36" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -3643,7 +3658,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="23" t="s">
@@ -3651,7 +3666,7 @@
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="36" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -3659,7 +3674,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="23" t="s">
@@ -3667,7 +3682,7 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -3675,7 +3690,7 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="36" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="23" t="s">
@@ -3683,7 +3698,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="36" t="s">
         <v>130</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -3691,7 +3706,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="36" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -3699,7 +3714,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="36" t="s">
         <v>397</v>
       </c>
       <c r="C49" s="23" t="s">
@@ -3707,13 +3722,13 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="36" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -3721,19 +3736,19 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="36" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="23"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="36" t="s">
         <v>137</v>
       </c>
       <c r="C54" s="23" t="s">
@@ -3741,7 +3756,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="36" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="23" t="s">
@@ -3749,7 +3764,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="36" t="s">
         <v>139</v>
       </c>
       <c r="C56" s="23" t="s">
@@ -3757,7 +3772,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="36" t="s">
         <v>202</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -3765,7 +3780,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="36" t="s">
         <v>140</v>
       </c>
       <c r="C58" s="23" t="s">
@@ -3773,7 +3788,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="36" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="23" t="s">
@@ -3781,7 +3796,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="36" t="s">
         <v>211</v>
       </c>
       <c r="C60" s="23" t="s">
@@ -3789,7 +3804,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="36" t="s">
         <v>219</v>
       </c>
       <c r="C61" s="23" t="s">
@@ -3797,7 +3812,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="36" t="s">
         <v>436</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -3805,7 +3820,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="36" t="s">
         <v>143</v>
       </c>
       <c r="C63" s="23" t="s">
@@ -3813,7 +3828,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="36" t="s">
         <v>437</v>
       </c>
       <c r="C64" s="23" t="s">
@@ -3821,19 +3836,19 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C65" s="23"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="36" t="s">
         <v>438</v>
       </c>
       <c r="C66" s="23"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="36" t="s">
         <v>439</v>
       </c>
       <c r="C67" s="23" t="s">
@@ -3841,7 +3856,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="36" t="s">
         <v>440</v>
       </c>
       <c r="C68" s="23" t="s">
@@ -3849,7 +3864,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="36" t="s">
         <v>205</v>
       </c>
       <c r="C69" s="23" t="s">
@@ -3857,13 +3872,13 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="36" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="36" t="s">
         <v>148</v>
       </c>
       <c r="C71" s="23" t="s">
@@ -3871,7 +3886,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="36" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="23" t="s">
@@ -3879,7 +3894,7 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="36" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="23" t="s">
@@ -3887,7 +3902,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="36" t="s">
         <v>196</v>
       </c>
       <c r="C74" s="23" t="s">
@@ -3895,13 +3910,13 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="36" t="s">
         <v>154</v>
       </c>
       <c r="C75" s="23"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="36" t="s">
         <v>212</v>
       </c>
       <c r="C76" s="23" t="s">
@@ -3909,7 +3924,7 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="36" t="s">
         <v>155</v>
       </c>
       <c r="C77" s="23" t="s">
@@ -3917,7 +3932,7 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="46" t="s">
+      <c r="B78" s="36" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="23" t="s">
@@ -3925,7 +3940,7 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="36" t="s">
         <v>398</v>
       </c>
       <c r="C79" s="23" t="s">
@@ -3933,7 +3948,7 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C80" s="23" t="s">
@@ -3941,13 +3956,13 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="36" t="s">
         <v>160</v>
       </c>
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="36" t="s">
         <v>216</v>
       </c>
       <c r="C82" s="23" t="s">
@@ -3955,7 +3970,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="36" t="s">
         <v>434</v>
       </c>
       <c r="C83" s="23" t="s">
@@ -3963,7 +3978,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="36" t="s">
         <v>164</v>
       </c>
       <c r="C84" s="23" t="s">
@@ -3971,7 +3986,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="36" t="s">
         <v>166</v>
       </c>
       <c r="C85" s="23" t="s">
@@ -3979,7 +3994,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="36" t="s">
         <v>199</v>
       </c>
       <c r="C86" s="23" t="s">
@@ -3987,7 +4002,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="36" t="s">
         <v>168</v>
       </c>
       <c r="C87" s="23" t="s">
@@ -3995,7 +4010,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="36" t="s">
         <v>408</v>
       </c>
       <c r="C88" s="23" t="s">
@@ -4003,7 +4018,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="36" t="s">
         <v>170</v>
       </c>
       <c r="C89" s="23" t="s">
@@ -4011,7 +4026,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="36" t="s">
         <v>422</v>
       </c>
       <c r="C90" s="23" t="s">
@@ -4019,7 +4034,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="36" t="s">
         <v>203</v>
       </c>
       <c r="C91" s="23" t="s">
@@ -4027,7 +4042,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C92" s="23" t="s">
@@ -4035,7 +4050,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="36" t="s">
         <v>435</v>
       </c>
       <c r="C93" s="23" t="s">
@@ -4043,7 +4058,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="36" t="s">
         <v>176</v>
       </c>
       <c r="C94" s="23" t="s">
@@ -4051,7 +4066,7 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="36" t="s">
         <v>215</v>
       </c>
       <c r="C95" s="23" t="s">
@@ -4059,7 +4074,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="36" t="s">
         <v>406</v>
       </c>
       <c r="C96" s="23" t="s">
@@ -4067,7 +4082,7 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="36" t="s">
         <v>204</v>
       </c>
       <c r="C97" s="23" t="s">
@@ -4075,7 +4090,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="36" t="s">
         <v>407</v>
       </c>
       <c r="C98" s="23" t="s">
@@ -4083,7 +4098,7 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="46" t="s">
+      <c r="B99" s="36" t="s">
         <v>179</v>
       </c>
       <c r="C99" s="23" t="s">
@@ -4091,7 +4106,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="36" t="s">
         <v>197</v>
       </c>
       <c r="C100" s="23" t="s">
@@ -4099,7 +4114,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="36" t="s">
         <v>181</v>
       </c>
       <c r="C101" s="23" t="s">
@@ -4107,7 +4122,7 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="36" t="s">
         <v>182</v>
       </c>
       <c r="C102" s="23" t="s">
@@ -4115,7 +4130,7 @@
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="36" t="s">
         <v>183</v>
       </c>
       <c r="C103" s="23" t="s">
@@ -4123,7 +4138,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C104" s="23" t="s">
@@ -4131,7 +4146,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="36" t="s">
         <v>185</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -4139,7 +4154,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="36" t="s">
         <v>187</v>
       </c>
       <c r="C106" s="23" t="s">
@@ -4147,7 +4162,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="36" t="s">
         <v>188</v>
       </c>
       <c r="C107" s="23" t="s">
@@ -4155,7 +4170,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C108" s="23" t="s">
@@ -4163,7 +4178,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="36" t="s">
         <v>198</v>
       </c>
       <c r="C109" s="23" t="s">
@@ -4171,7 +4186,7 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="36" t="s">
         <v>400</v>
       </c>
       <c r="C110" s="23" t="s">
@@ -4179,7 +4194,7 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="47" t="s">
+      <c r="B111" s="36" t="s">
         <v>402</v>
       </c>
       <c r="C111" s="23" t="s">
@@ -4187,7 +4202,7 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="47" t="s">
+      <c r="B112" s="36" t="s">
         <v>409</v>
       </c>
       <c r="C112" s="23" t="s">
@@ -4195,7 +4210,7 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="47" t="s">
+      <c r="B113" s="36" t="s">
         <v>411</v>
       </c>
       <c r="C113" s="23" t="s">
@@ -4203,7 +4218,7 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="47" t="s">
+      <c r="B114" s="36" t="s">
         <v>413</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -4211,7 +4226,7 @@
       </c>
     </row>
     <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="48" t="s">
+      <c r="B115" s="37" t="s">
         <v>415</v>
       </c>
       <c r="C115" s="24" t="s">
@@ -4219,7 +4234,7 @@
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="38" t="s">
         <v>417</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4227,7 +4242,7 @@
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="49" t="s">
+      <c r="B117" s="38" t="s">
         <v>419</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4263,15 +4278,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FA2969-CC89-498D-B699-59D681CD369F}">
   <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.75" style="33" customWidth="1"/>
+    <col min="4" max="4" width="1.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
@@ -4287,7 +4302,7 @@
       <c r="C2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="3" t="s">
         <v>261</v>
       </c>
@@ -4308,10 +4323,10 @@
       <c r="E3" s="3">
         <v>971014</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -4323,10 +4338,10 @@
       <c r="E4" s="3">
         <v>971015</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -4338,10 +4353,10 @@
       <c r="E5" s="3">
         <v>971016</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -4353,10 +4368,10 @@
       <c r="E6" s="3">
         <v>971017</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
@@ -4368,10 +4383,10 @@
       <c r="E7" s="3">
         <v>971018</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="40" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4379,10 +4394,10 @@
       <c r="E8" s="3">
         <v>970018</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="40" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4390,28 +4405,28 @@
       <c r="E9" s="3">
         <v>972001</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E10" s="3">
         <v>972002</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E11" s="3">
         <v>971019</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="40" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4419,19 +4434,19 @@
       <c r="E12" s="3">
         <v>972003</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E13" s="3">
         <v>921003</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="40" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4439,10 +4454,10 @@
       <c r="E14" s="3">
         <v>921004</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="40" t="s">
         <v>424</v>
       </c>
     </row>
@@ -4450,10 +4465,10 @@
       <c r="E15" s="3">
         <v>921005</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="40" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4461,37 +4476,37 @@
       <c r="E16" s="3">
         <v>923003</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="G16" s="51"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <v>923004</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="G17" s="51"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="3">
         <v>923005</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="3">
         <v>923006</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="G19" s="51"/>
+      <c r="G19" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4530,80 +4545,80 @@
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="26" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="28" t="s">
         <v>281</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="29" t="s">
         <v>284</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="28" t="s">
         <v>285</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="30">
         <v>911001</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
         <v>287</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="28" t="s">
         <v>289</v>
       </c>
       <c r="F4" s="3">
@@ -4612,140 +4627,140 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="40">
+      <c r="K4" s="30">
         <v>912001</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>290</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="29" t="s">
         <v>292</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="K5" s="40">
+      <c r="I5" s="48"/>
+      <c r="K5" s="30">
         <v>912002</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="N5" s="42"/>
+      <c r="N5" s="32"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="28" t="s">
         <v>293</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>294</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>296</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="40">
+      <c r="K6" s="30">
         <v>912003</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="28" t="s">
         <v>297</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="29" t="s">
         <v>300</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="40">
+      <c r="K7" s="30">
         <v>912004</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="28" t="s">
         <v>301</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>302</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="29" t="s">
         <v>304</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="K8" s="40">
+      <c r="K8" s="30">
         <v>912005</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="28" t="s">
         <v>301</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>305</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="28" t="s">
         <v>306</v>
       </c>
       <c r="F9" s="3">
@@ -4754,198 +4769,198 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="40">
+      <c r="K9" s="30">
         <v>912006</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="28" t="s">
         <v>301</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>307</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="29" t="s">
         <v>309</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="40">
+      <c r="K10" s="30">
         <v>912007</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="28" t="s">
         <v>310</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="29" t="s">
         <v>312</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="40">
+      <c r="K11" s="30">
         <v>912008</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="29" t="s">
         <v>314</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="40">
+      <c r="K12" s="30">
         <v>921001</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="L12" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="N12" s="42"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="29" t="s">
         <v>316</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="40">
+      <c r="K13" s="30">
         <v>921002</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="L13" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="N13" s="42"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="29" t="s">
         <v>318</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="K14" s="40">
+      <c r="K14" s="30">
         <v>922001</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="N14" s="42"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="29" t="s">
         <v>320</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="K15" s="40">
+      <c r="K15" s="30">
         <v>922002</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="N15" s="42"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="29" t="s">
         <v>322</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="K16" s="40">
+      <c r="K16" s="30">
         <v>923001</v>
       </c>
-      <c r="L16" s="42" t="s">
+      <c r="L16" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="28" t="s">
         <v>323</v>
       </c>
       <c r="F17" s="3">
@@ -4954,22 +4969,22 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="K17" s="40">
+      <c r="K17" s="30">
         <v>923002</v>
       </c>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="N17" s="42"/>
+      <c r="N17" s="32"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="28" t="s">
         <v>324</v>
       </c>
       <c r="F18" s="3">
@@ -4978,240 +4993,240 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="40">
+      <c r="K18" s="30">
         <v>931001</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="N18" s="42"/>
+      <c r="N18" s="32"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="28" t="s">
         <v>325</v>
       </c>
       <c r="F19" s="3">
         <v>-72</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="30">
         <v>931002</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="32" t="s">
         <v>365</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="28" t="s">
         <v>326</v>
       </c>
       <c r="F20" s="3">
         <v>-73</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="30">
         <v>932001</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="N20" s="42"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K21" s="40">
+      <c r="K21" s="30">
         <v>970001</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K22" s="40">
+      <c r="K22" s="30">
         <v>970002</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="32"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K23" s="40">
+      <c r="K23" s="30">
         <v>970003</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K24" s="40">
+      <c r="K24" s="30">
         <v>970004</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="32"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K25" s="40">
+      <c r="K25" s="30">
         <v>970005</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="32"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K26" s="40">
+      <c r="K26" s="30">
         <v>970006</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="32"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K27" s="40">
+      <c r="K27" s="30">
         <v>970008</v>
       </c>
-      <c r="L27" s="42" t="s">
+      <c r="L27" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="N27" s="42"/>
+      <c r="N27" s="32"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K28" s="40">
+      <c r="K28" s="30">
         <v>970009</v>
       </c>
-      <c r="L28" s="42" t="s">
+      <c r="L28" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="N28" s="42"/>
+      <c r="N28" s="32"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K29" s="40">
+      <c r="K29" s="30">
         <v>971001</v>
       </c>
-      <c r="L29" s="42" t="s">
+      <c r="L29" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K30" s="40">
+      <c r="K30" s="30">
         <v>971002</v>
       </c>
-      <c r="L30" s="42" t="s">
+      <c r="L30" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="M30" s="42" t="s">
+      <c r="M30" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="N30" s="42"/>
+      <c r="N30" s="32"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K31" s="40">
+      <c r="K31" s="30">
         <v>971003</v>
       </c>
-      <c r="L31" s="42" t="s">
+      <c r="L31" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="M31" s="42" t="s">
+      <c r="M31" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="N31" s="42" t="s">
+      <c r="N31" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K32" s="40">
+      <c r="K32" s="30">
         <v>971004</v>
       </c>
-      <c r="L32" s="42" t="s">
+      <c r="L32" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="M32" s="42" t="s">
+      <c r="M32" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="N32" s="42" t="s">
+      <c r="N32" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K33" s="40">
+      <c r="K33" s="30">
         <v>971005</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="N33" s="42"/>
+      <c r="N33" s="32"/>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K34" s="40">
+      <c r="K34" s="30">
         <v>971006</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="M34" s="42" t="s">
+      <c r="M34" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="N34" s="42"/>
+      <c r="N34" s="32"/>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K35" s="40">
+      <c r="K35" s="30">
         <v>971007</v>
       </c>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="N35" s="42"/>
+      <c r="N35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B264D70-8714-43C5-AD90-45D5416EFC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CF578-6BBC-4054-871A-8B5CAE79E8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20625" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="491">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3회 빛 기둥이 피해를 주고 마지막에 이프리트 소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,10 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dax의 검정 구체 하나 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,18 +899,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주변 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>높음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회오리 참격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발키리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1708,6 +1692,214 @@
   </si>
   <si>
     <t>Witch_Speed_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 빛 기둥이 피해를 주고 마지막에 악마 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 연속 참격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이프리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불기둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일에 불기둥 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 타일에 지속 장판 생성 -&gt; 긴 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부체꼴 60도 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타일 안에서 공격력 증가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발키리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트롤 샤먼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부체꼴 모양으로 파장을 날려 녁백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 타일에서 무적 버프 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회 -&gt; 플레이어 따라다니면서 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번의 폭힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타일 범위의 낮지만 지속 회복 필살기 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 광역 폭파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 다가 가서 강한 폭파 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satyr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dax의 검정 구체 하나 발사 X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리 참격 타일 안에서 지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선 장판 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 같은 장거리 장판 5회 시전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참격배기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회오리 참격 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 연속 참격 이후 참격동안 지속 피해 5회 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉기탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체 투사체 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 구체 발사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,7 +1907,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1749,8 +1941,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1777,7 +1977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,7 +2398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2307,15 +2519,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2332,24 +2577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2666,27 +2893,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N32"/>
+  <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="52.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5" style="1" bestFit="1" customWidth="1"/>
@@ -2695,21 +2921,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>0</v>
@@ -2739,20 +2965,20 @@
         <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2780,18 +3006,18 @@
         <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N4" s="1">
         <v>972002</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2819,15 +3045,15 @@
         <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5" s="1">
         <v>972001</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2855,12 +3081,12 @@
         <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="53"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2888,17 +3114,17 @@
         <v>39</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2930,7 +3156,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="42"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -2956,16 +3182,16 @@
         <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="52"/>
+      <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -2974,28 +3200,28 @@
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="7" t="s">
+    </row>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="52"/>
+      <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42"/>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="20">
         <v>3</v>
@@ -3004,27 +3230,27 @@
         <v>25</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>24</v>
@@ -3039,25 +3265,25 @@
         <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="12" t="s">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="55"/>
+      <c r="C13" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -3069,25 +3295,25 @@
         <v>19</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="7" t="s">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="55"/>
+      <c r="C14" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
-      <c r="C14" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -3099,22 +3325,22 @@
         <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+    </row>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="56"/>
+      <c r="C15" s="16" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="45"/>
-      <c r="C15" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>33</v>
@@ -3132,215 +3358,579 @@
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="42">
+        <v>18</v>
+      </c>
+      <c r="F16" s="42">
+        <v>18</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="1">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="C17" s="40" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="40">
+        <v>15</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="H17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="40">
+        <v>10</v>
+      </c>
+      <c r="F18" s="40">
+        <v>20</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="40">
+        <v>15</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="E20" s="40">
+        <v>5</v>
+      </c>
+      <c r="F20" s="40">
+        <v>15</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" s="40">
+        <v>10</v>
+      </c>
+      <c r="F21" s="40">
+        <v>8</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="40">
+        <v>15</v>
+      </c>
+      <c r="F22" s="40">
+        <v>5</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" s="40">
+        <v>5</v>
+      </c>
+      <c r="F23" s="40">
+        <v>15</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="46">
+        <v>10</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="46">
+        <v>5</v>
+      </c>
+      <c r="F25" s="46">
+        <v>5</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="46">
+        <v>1</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="46">
+        <v>15</v>
+      </c>
+      <c r="F27" s="46">
+        <v>15</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C28" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D28" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="44">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F28" s="44">
+        <v>10</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="44">
+        <v>10</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="K31" s="49" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="E32" s="44">
         <v>15</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="F32" s="44">
         <v>15</v>
       </c>
-      <c r="F21" s="1">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E31" s="46"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E32" s="46"/>
+      <c r="G32" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="K32" s="45" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="57"/>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="57"/>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E47" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3348,7 +3938,7 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E45:E47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3360,7 +3950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -3373,407 +3963,407 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>92</v>
+        <v>199</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="44"/>
+        <v>89</v>
+      </c>
+      <c r="C16" s="55"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="44"/>
+        <v>90</v>
+      </c>
+      <c r="C17" s="55"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="23"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C31" s="23"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="23"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="23"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="23"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>16</v>
@@ -3781,91 +4371,91 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>143</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C65" s="23"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C66" s="23"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>16</v>
@@ -3873,249 +4463,249 @@
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="23"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>151</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="23"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="23"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="36" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="23" t="s">
         <v>164</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="23" t="s">
         <v>168</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="36" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="36" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="36" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C101" s="23" t="s">
         <v>16</v>
@@ -4123,146 +4713,146 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="36" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="36" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="36" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="36" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="38" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4276,10 +4866,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FA2969-CC89-498D-B699-59D681CD369F}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4289,224 +4879,226 @@
     <col min="4" max="4" width="1.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3">
         <v>971014</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>970</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3">
         <v>971015</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>971</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E5" s="3">
         <v>971016</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>972</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E6" s="3">
         <v>971017</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>973</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E7" s="3">
         <v>971018</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E8" s="3">
         <v>970018</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E9" s="3">
         <v>972001</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E10" s="3">
         <v>972002</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E11" s="3">
         <v>971019</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E12" s="3">
         <v>972003</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E13" s="3">
         <v>921003</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="G13" s="40" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E14" s="3">
         <v>921004</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E15" s="3">
         <v>921005</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E16" s="3">
         <v>923003</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="G16" s="40"/>
+        <v>428</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <v>923004</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="G17" s="40"/>
+        <v>429</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="3">
         <v>923005</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="G18" s="40"/>
+        <v>437</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="3">
         <v>923006</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="G19" s="40"/>
+        <v>438</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4519,7 +5111,7 @@
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4541,85 +5133,85 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="26" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="28" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K3" s="30">
         <v>911001</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N3" s="31"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F4" s="3">
         <v>-12</v>
@@ -4631,56 +5223,56 @@
         <v>912001</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N4" s="32"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="I5" s="48"/>
+      <c r="H5" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="59"/>
       <c r="K5" s="30">
         <v>912002</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N5" s="32"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="28" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4689,26 +5281,26 @@
         <v>912003</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4717,26 +5309,26 @@
         <v>912004</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N7" s="32"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="28" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4745,23 +5337,23 @@
         <v>912005</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F9" s="3">
         <v>-32</v>
@@ -4773,26 +5365,26 @@
         <v>912006</v>
       </c>
       <c r="L9" s="32" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4801,26 +5393,26 @@
         <v>912007</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4829,10 +5421,10 @@
         <v>912008</v>
       </c>
       <c r="L11" s="32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N11" s="32"/>
     </row>
@@ -4841,10 +5433,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="28" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4853,10 +5445,10 @@
         <v>921001</v>
       </c>
       <c r="L12" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N12" s="32"/>
     </row>
@@ -4865,10 +5457,10 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4877,10 +5469,10 @@
         <v>921002</v>
       </c>
       <c r="L13" s="32" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N13" s="32"/>
     </row>
@@ -4889,10 +5481,10 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="28" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4901,10 +5493,10 @@
         <v>922001</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="N14" s="32"/>
     </row>
@@ -4913,10 +5505,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4925,10 +5517,10 @@
         <v>922002</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="N15" s="32"/>
     </row>
@@ -4937,10 +5529,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4949,10 +5541,10 @@
         <v>923001</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N16" s="32"/>
     </row>
@@ -4961,7 +5553,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F17" s="3">
         <v>-70</v>
@@ -4973,10 +5565,10 @@
         <v>923002</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N17" s="32"/>
     </row>
@@ -4985,7 +5577,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F18" s="3">
         <v>-71</v>
@@ -4997,16 +5589,16 @@
         <v>931001</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N18" s="32"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E19" s="28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F19" s="3">
         <v>-72</v>
@@ -5015,16 +5607,16 @@
         <v>931002</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E20" s="28" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F20" s="3">
         <v>-73</v>
@@ -5033,10 +5625,10 @@
         <v>932001</v>
       </c>
       <c r="L20" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N20" s="32"/>
     </row>
@@ -5045,10 +5637,10 @@
         <v>970001</v>
       </c>
       <c r="L21" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N21" s="32"/>
     </row>
@@ -5057,10 +5649,10 @@
         <v>970002</v>
       </c>
       <c r="L22" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N22" s="32"/>
     </row>
@@ -5069,13 +5661,13 @@
         <v>970003</v>
       </c>
       <c r="L23" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -5083,10 +5675,10 @@
         <v>970004</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N24" s="32"/>
     </row>
@@ -5095,10 +5687,10 @@
         <v>970005</v>
       </c>
       <c r="L25" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N25" s="32"/>
     </row>
@@ -5107,10 +5699,10 @@
         <v>970006</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N26" s="32"/>
     </row>
@@ -5119,10 +5711,10 @@
         <v>970008</v>
       </c>
       <c r="L27" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N27" s="32"/>
     </row>
@@ -5131,10 +5723,10 @@
         <v>970009</v>
       </c>
       <c r="L28" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N28" s="32"/>
     </row>
@@ -5143,13 +5735,13 @@
         <v>971001</v>
       </c>
       <c r="L29" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -5157,10 +5749,10 @@
         <v>971002</v>
       </c>
       <c r="L30" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="N30" s="32"/>
     </row>
@@ -5169,13 +5761,13 @@
         <v>971003</v>
       </c>
       <c r="L31" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -5183,13 +5775,13 @@
         <v>971004</v>
       </c>
       <c r="L32" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.3">
@@ -5197,10 +5789,10 @@
         <v>971005</v>
       </c>
       <c r="L33" s="32" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N33" s="32"/>
     </row>
@@ -5209,10 +5801,10 @@
         <v>971006</v>
       </c>
       <c r="L34" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N34" s="32"/>
     </row>
@@ -5221,10 +5813,10 @@
         <v>971007</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N35" s="32"/>
     </row>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CF578-6BBC-4054-871A-8B5CAE79E8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819EB83B-A313-4315-BC0D-D423EE8A9CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14385" yWindow="4530" windowWidth="14325" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -1506,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정령용 옮겨야됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FireDam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1900,6 +1896,10 @@
   </si>
   <si>
     <t>얼음 구체 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정령용 옮겨야됨 -&gt; 색 밝은걸로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2895,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3182,7 +3182,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>229</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
@@ -3407,10 +3407,10 @@
         <v>231</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F17" s="40">
         <v>15</v>
@@ -3428,18 +3428,18 @@
         <v>31</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E18" s="40">
         <v>10</v>
@@ -3448,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H18" s="40" t="s">
         <v>13</v>
@@ -3457,30 +3457,30 @@
         <v>228</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="40">
         <v>15</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>13</v>
@@ -3489,21 +3489,21 @@
         <v>228</v>
       </c>
       <c r="J19" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="K19" s="41" t="s">
         <v>455</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E20" s="40">
         <v>5</v>
@@ -3512,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>13</v>
@@ -3521,21 +3521,21 @@
         <v>228</v>
       </c>
       <c r="J20" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="K20" s="41" t="s">
         <v>474</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21" s="40">
         <v>10</v>
@@ -3553,18 +3553,18 @@
         <v>228</v>
       </c>
       <c r="J21" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="K21" s="41" t="s">
         <v>479</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>225</v>
@@ -3585,21 +3585,21 @@
         <v>228</v>
       </c>
       <c r="J22" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="K22" s="41" t="s">
         <v>489</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>482</v>
-      </c>
       <c r="D23" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E23" s="40">
         <v>5</v>
@@ -3617,10 +3617,10 @@
         <v>228</v>
       </c>
       <c r="J23" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="K23" s="41" t="s">
         <v>483</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -3631,10 +3631,10 @@
         <v>249</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F24" s="46">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>249</v>
@@ -3684,39 +3684,39 @@
         <v>250</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C26" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="E26" s="46" t="s">
         <v>442</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>443</v>
       </c>
       <c r="F26" s="46">
         <v>1</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I26" s="46" t="s">
         <v>228</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
@@ -3780,27 +3780,27 @@
         <v>246</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C29" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="D29" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="E29" s="44" t="s">
         <v>450</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>451</v>
       </c>
       <c r="F29" s="44">
         <v>10</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>236</v>
@@ -3812,7 +3812,7 @@
         <v>246</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
@@ -3849,45 +3849,45 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="D31" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="D31" s="48" t="s">
-        <v>459</v>
-      </c>
       <c r="E31" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>25</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I31" s="48" t="s">
         <v>228</v>
       </c>
       <c r="J31" s="48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K31" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>461</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>462</v>
       </c>
       <c r="E32" s="44">
         <v>15</v>
@@ -3896,19 +3896,19 @@
         <v>15</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I32" s="44" t="s">
         <v>228</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.3">
@@ -4305,7 +4305,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>131</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>141</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>141</v>
@@ -4433,13 +4433,13 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C66" s="23"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>145</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>146</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>157</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C83" s="23" t="s">
         <v>162</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>44</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C90" s="23" t="s">
         <v>162</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>174</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>116</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C98" s="23" t="s">
         <v>116</v>
@@ -4777,82 +4777,82 @@
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="C111" s="23" t="s">
         <v>398</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" s="23" t="s">
         <v>405</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>407</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" s="23" t="s">
         <v>409</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>411</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4868,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FA2969-CC89-498D-B699-59D681CD369F}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4879,7 +4879,7 @@
     <col min="4" max="4" width="1.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4990,7 +4990,7 @@
         <v>272</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>391</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -4998,7 +4998,7 @@
         <v>972001</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -5007,7 +5007,7 @@
         <v>972002</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -5016,7 +5016,7 @@
         <v>971019</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>270</v>
@@ -5027,7 +5027,7 @@
         <v>972003</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -5036,10 +5036,10 @@
         <v>921003</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -5047,10 +5047,10 @@
         <v>921004</v>
       </c>
       <c r="F14" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -5058,10 +5058,10 @@
         <v>921005</v>
       </c>
       <c r="F15" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -5069,7 +5069,7 @@
         <v>923003</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -5078,7 +5078,7 @@
         <v>923004</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -5087,7 +5087,7 @@
         <v>923005</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -5096,7 +5096,7 @@
         <v>923006</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G19" s="3"/>
     </row>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819EB83B-A313-4315-BC0D-D423EE8A9CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14385" yWindow="4530" windowWidth="14325" windowHeight="10800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14385" yWindow="4530" windowWidth="14325" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="508">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1900,14 +1899,81 @@
   </si>
   <si>
     <t>정령용 옮겨야됨 -&gt; 색 밝은걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade_blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속참격용 시전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 넘버링 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fantasy effect 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fantasy effect 53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade_Dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 참격용 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bladew_Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 참격용 필드 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ifri_ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불기둥 이프리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ifri_Explosion_start</t>
+  </si>
+  <si>
+    <t>불기둥 이프리트 시전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ifri_buster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭파 시작용 이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,7 +2464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2548,6 +2614,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2892,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -2903,7 +2972,7 @@
       <selection pane="bottomRight" activeCell="B24" sqref="B24:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
@@ -2920,20 +2989,20 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1">
       <c r="B3" s="18" t="s">
         <v>222</v>
       </c>
@@ -2974,8 +3043,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="2:14">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3015,8 +3084,8 @@
         <v>972002</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
+    <row r="5" spans="2:14">
+      <c r="B5" s="53"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3051,8 +3120,8 @@
         <v>972001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
+    <row r="6" spans="2:14">
+      <c r="B6" s="53"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3084,8 +3153,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
+    <row r="7" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B7" s="54"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -3123,8 +3192,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3155,8 +3224,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
+    <row r="9" spans="2:14">
+      <c r="B9" s="53"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3185,8 +3254,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
+    <row r="10" spans="2:14">
+      <c r="B10" s="53"/>
       <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
@@ -3215,8 +3284,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="52"/>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B11" s="53"/>
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
@@ -3245,8 +3314,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+    <row r="12" spans="2:14">
+      <c r="B12" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3277,8 +3346,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
+    <row r="13" spans="2:14">
+      <c r="B13" s="56"/>
       <c r="C13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3307,8 +3376,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
+    <row r="14" spans="2:14">
+      <c r="B14" s="56"/>
       <c r="C14" s="15" t="s">
         <v>68</v>
       </c>
@@ -3337,8 +3406,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="56"/>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B15" s="57"/>
       <c r="C15" s="16" t="s">
         <v>71</v>
       </c>
@@ -3367,7 +3436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="42" t="s">
         <v>223</v>
       </c>
@@ -3399,7 +3468,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11">
       <c r="B17" s="40" t="s">
         <v>230</v>
       </c>
@@ -3431,7 +3500,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11">
       <c r="B18" s="40" t="s">
         <v>438</v>
       </c>
@@ -3463,7 +3532,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11">
       <c r="B19" s="40" t="s">
         <v>447</v>
       </c>
@@ -3495,7 +3564,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11">
       <c r="B20" s="40" t="s">
         <v>447</v>
       </c>
@@ -3527,7 +3596,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11">
       <c r="B21" s="40" t="s">
         <v>475</v>
       </c>
@@ -3559,7 +3628,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11">
       <c r="B22" s="40" t="s">
         <v>475</v>
       </c>
@@ -3591,7 +3660,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11">
       <c r="B23" s="40" t="s">
         <v>480</v>
       </c>
@@ -3623,7 +3692,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11">
       <c r="B24" s="46" t="s">
         <v>238</v>
       </c>
@@ -3655,7 +3724,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11">
       <c r="B25" s="46" t="s">
         <v>238</v>
       </c>
@@ -3687,7 +3756,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11">
       <c r="B26" s="46" t="s">
         <v>466</v>
       </c>
@@ -3719,7 +3788,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11">
       <c r="B27" s="46" t="s">
         <v>239</v>
       </c>
@@ -3751,7 +3820,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11">
       <c r="B28" s="44" t="s">
         <v>233</v>
       </c>
@@ -3783,7 +3852,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11">
       <c r="B29" s="44" t="s">
         <v>466</v>
       </c>
@@ -3815,7 +3884,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11">
       <c r="B30" s="44" t="s">
         <v>237</v>
       </c>
@@ -3847,7 +3916,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11">
       <c r="B31" s="48" t="s">
         <v>456</v>
       </c>
@@ -3879,7 +3948,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11">
       <c r="B32" s="44" t="s">
         <v>465</v>
       </c>
@@ -3911,26 +3980,26 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11">
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11">
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11">
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11">
       <c r="K36" s="1"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E45" s="57"/>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E46" s="57"/>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E47" s="57"/>
+    <row r="45" spans="5:11">
+      <c r="E45" s="58"/>
+    </row>
+    <row r="46" spans="5:11">
+      <c r="E46" s="58"/>
+    </row>
+    <row r="47" spans="5:11">
+      <c r="E47" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3947,21 +4016,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C119"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="49.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="B2" s="34" t="s">
         <v>193</v>
       </c>
@@ -3969,7 +4038,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" s="35" t="s">
         <v>75</v>
       </c>
@@ -3977,31 +4046,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3">
       <c r="B7" s="36" t="s">
         <v>256</v>
       </c>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3">
       <c r="B8" s="36" t="s">
         <v>79</v>
       </c>
@@ -4009,19 +4078,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3">
       <c r="B9" s="36" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3">
       <c r="B10" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3">
       <c r="B11" s="36" t="s">
         <v>83</v>
       </c>
@@ -4029,19 +4098,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3">
       <c r="B12" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3">
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3">
       <c r="B14" s="36" t="s">
         <v>87</v>
       </c>
@@ -4049,27 +4118,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3">
       <c r="B15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3">
       <c r="B16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="55"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="36" t="s">
         <v>92</v>
       </c>
@@ -4077,7 +4146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19" s="36" t="s">
         <v>94</v>
       </c>
@@ -4085,13 +4154,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" s="36" t="s">
         <v>207</v>
       </c>
@@ -4099,13 +4168,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22" s="36" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="36" t="s">
         <v>205</v>
       </c>
@@ -4113,7 +4182,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="36" t="s">
         <v>206</v>
       </c>
@@ -4121,7 +4190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="36" t="s">
         <v>96</v>
       </c>
@@ -4129,7 +4198,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="36" t="s">
         <v>98</v>
       </c>
@@ -4137,7 +4206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27" s="36" t="s">
         <v>100</v>
       </c>
@@ -4145,13 +4214,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3">
       <c r="B29" s="36" t="s">
         <v>102</v>
       </c>
@@ -4159,7 +4228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3">
       <c r="B30" s="36" t="s">
         <v>104</v>
       </c>
@@ -4167,13 +4236,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3">
       <c r="B31" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3">
       <c r="B32" s="36" t="s">
         <v>217</v>
       </c>
@@ -4181,7 +4250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3">
       <c r="B33" s="36" t="s">
         <v>108</v>
       </c>
@@ -4189,7 +4258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3">
       <c r="B34" s="36" t="s">
         <v>110</v>
       </c>
@@ -4197,13 +4266,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3">
       <c r="B35" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="23"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3">
       <c r="B36" s="36" t="s">
         <v>113</v>
       </c>
@@ -4211,7 +4280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3">
       <c r="B37" s="36" t="s">
         <v>115</v>
       </c>
@@ -4219,13 +4288,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3">
       <c r="B38" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="23"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3">
       <c r="B39" s="36" t="s">
         <v>118</v>
       </c>
@@ -4233,13 +4302,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3">
       <c r="B40" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="23"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3">
       <c r="B41" s="36" t="s">
         <v>120</v>
       </c>
@@ -4247,7 +4316,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3">
       <c r="B42" s="36" t="s">
         <v>121</v>
       </c>
@@ -4255,7 +4324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3">
       <c r="B43" s="36" t="s">
         <v>123</v>
       </c>
@@ -4263,7 +4332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3">
       <c r="B44" s="36" t="s">
         <v>125</v>
       </c>
@@ -4271,7 +4340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45" s="36" t="s">
         <v>126</v>
       </c>
@@ -4279,7 +4348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3">
       <c r="B46" s="36" t="s">
         <v>128</v>
       </c>
@@ -4287,7 +4356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3">
       <c r="B47" s="36" t="s">
         <v>129</v>
       </c>
@@ -4295,7 +4364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3">
       <c r="B48" s="36" t="s">
         <v>130</v>
       </c>
@@ -4303,7 +4372,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" s="36" t="s">
         <v>392</v>
       </c>
@@ -4311,13 +4380,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="23"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" s="36" t="s">
         <v>133</v>
       </c>
@@ -4325,19 +4394,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C52" s="23"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54" s="36" t="s">
         <v>136</v>
       </c>
@@ -4345,7 +4414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" s="36" t="s">
         <v>137</v>
       </c>
@@ -4353,7 +4422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" s="36" t="s">
         <v>138</v>
       </c>
@@ -4361,7 +4430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" s="36" t="s">
         <v>201</v>
       </c>
@@ -4369,7 +4438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" s="36" t="s">
         <v>139</v>
       </c>
@@ -4377,7 +4446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" s="36" t="s">
         <v>140</v>
       </c>
@@ -4385,7 +4454,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" s="36" t="s">
         <v>210</v>
       </c>
@@ -4393,7 +4462,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" s="36" t="s">
         <v>218</v>
       </c>
@@ -4401,7 +4470,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" s="36" t="s">
         <v>431</v>
       </c>
@@ -4409,7 +4478,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63" s="36" t="s">
         <v>142</v>
       </c>
@@ -4417,7 +4486,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" s="36" t="s">
         <v>432</v>
       </c>
@@ -4425,19 +4494,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="B65" s="36" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="23"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="B66" s="36" t="s">
         <v>433</v>
       </c>
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3">
       <c r="B67" s="36" t="s">
         <v>434</v>
       </c>
@@ -4445,7 +4514,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3">
       <c r="B68" s="36" t="s">
         <v>435</v>
       </c>
@@ -4453,7 +4522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3">
       <c r="B69" s="36" t="s">
         <v>204</v>
       </c>
@@ -4461,13 +4530,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3">
       <c r="B70" s="36" t="s">
         <v>148</v>
       </c>
       <c r="C70" s="23"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3">
       <c r="B71" s="36" t="s">
         <v>147</v>
       </c>
@@ -4475,7 +4544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3">
       <c r="B72" s="36" t="s">
         <v>150</v>
       </c>
@@ -4483,7 +4552,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3">
       <c r="B73" s="36" t="s">
         <v>152</v>
       </c>
@@ -4491,7 +4560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3">
       <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
@@ -4499,13 +4568,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3">
       <c r="B75" s="36" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="23"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3">
       <c r="B76" s="36" t="s">
         <v>211</v>
       </c>
@@ -4513,7 +4582,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3">
       <c r="B77" s="36" t="s">
         <v>154</v>
       </c>
@@ -4521,7 +4590,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3">
       <c r="B78" s="36" t="s">
         <v>216</v>
       </c>
@@ -4529,7 +4598,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3">
       <c r="B79" s="36" t="s">
         <v>393</v>
       </c>
@@ -4537,7 +4606,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3">
       <c r="B80" s="36" t="s">
         <v>158</v>
       </c>
@@ -4545,13 +4614,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3">
       <c r="B81" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="23"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3">
       <c r="B82" s="36" t="s">
         <v>215</v>
       </c>
@@ -4559,7 +4628,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3">
       <c r="B83" s="36" t="s">
         <v>429</v>
       </c>
@@ -4567,7 +4636,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3">
       <c r="B84" s="36" t="s">
         <v>163</v>
       </c>
@@ -4575,7 +4644,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3">
       <c r="B85" s="36" t="s">
         <v>165</v>
       </c>
@@ -4583,7 +4652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3">
       <c r="B86" s="36" t="s">
         <v>198</v>
       </c>
@@ -4591,7 +4660,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3">
       <c r="B87" s="36" t="s">
         <v>167</v>
       </c>
@@ -4599,7 +4668,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3">
       <c r="B88" s="36" t="s">
         <v>403</v>
       </c>
@@ -4607,7 +4676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3">
       <c r="B89" s="36" t="s">
         <v>169</v>
       </c>
@@ -4615,7 +4684,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3">
       <c r="B90" s="36" t="s">
         <v>417</v>
       </c>
@@ -4623,7 +4692,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3">
       <c r="B91" s="36" t="s">
         <v>202</v>
       </c>
@@ -4631,7 +4700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3">
       <c r="B92" s="36" t="s">
         <v>172</v>
       </c>
@@ -4639,7 +4708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3">
       <c r="B93" s="36" t="s">
         <v>430</v>
       </c>
@@ -4647,7 +4716,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3">
       <c r="B94" s="36" t="s">
         <v>175</v>
       </c>
@@ -4655,7 +4724,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3">
       <c r="B95" s="36" t="s">
         <v>214</v>
       </c>
@@ -4663,7 +4732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3">
       <c r="B96" s="36" t="s">
         <v>401</v>
       </c>
@@ -4671,7 +4740,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3">
       <c r="B97" s="36" t="s">
         <v>203</v>
       </c>
@@ -4679,7 +4748,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3">
       <c r="B98" s="36" t="s">
         <v>402</v>
       </c>
@@ -4687,7 +4756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3">
       <c r="B99" s="36" t="s">
         <v>178</v>
       </c>
@@ -4695,7 +4764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3">
       <c r="B100" s="36" t="s">
         <v>196</v>
       </c>
@@ -4703,7 +4772,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3">
       <c r="B101" s="36" t="s">
         <v>180</v>
       </c>
@@ -4711,7 +4780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3">
       <c r="B102" s="36" t="s">
         <v>181</v>
       </c>
@@ -4719,7 +4788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3">
       <c r="B103" s="36" t="s">
         <v>182</v>
       </c>
@@ -4727,7 +4796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3">
       <c r="B104" s="36" t="s">
         <v>183</v>
       </c>
@@ -4735,7 +4804,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3">
       <c r="B105" s="36" t="s">
         <v>184</v>
       </c>
@@ -4743,7 +4812,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3">
       <c r="B106" s="36" t="s">
         <v>186</v>
       </c>
@@ -4751,7 +4820,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3">
       <c r="B107" s="36" t="s">
         <v>187</v>
       </c>
@@ -4759,7 +4828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3">
       <c r="B108" s="36" t="s">
         <v>188</v>
       </c>
@@ -4767,7 +4836,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3">
       <c r="B109" s="36" t="s">
         <v>197</v>
       </c>
@@ -4775,7 +4844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3">
       <c r="B110" s="36" t="s">
         <v>395</v>
       </c>
@@ -4783,7 +4852,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3">
       <c r="B111" s="36" t="s">
         <v>397</v>
       </c>
@@ -4791,7 +4860,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3">
       <c r="B112" s="36" t="s">
         <v>404</v>
       </c>
@@ -4799,7 +4868,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3">
       <c r="B113" s="36" t="s">
         <v>406</v>
       </c>
@@ -4807,7 +4876,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3">
       <c r="B114" s="36" t="s">
         <v>408</v>
       </c>
@@ -4815,7 +4884,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" ht="17.25" thickBot="1">
       <c r="B115" s="37" t="s">
         <v>410</v>
       </c>
@@ -4823,7 +4892,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3">
       <c r="B116" s="38" t="s">
         <v>412</v>
       </c>
@@ -4831,7 +4900,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3">
       <c r="B117" s="38" t="s">
         <v>414</v>
       </c>
@@ -4839,7 +4908,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3">
       <c r="B118" t="s">
         <v>423</v>
       </c>
@@ -4847,7 +4916,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3">
       <c r="B119" t="s">
         <v>424</v>
       </c>
@@ -4865,14 +4934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FA2969-CC89-498D-B699-59D681CD369F}">
-  <dimension ref="B1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
@@ -4883,10 +4952,10 @@
     <col min="8" max="8" width="2.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8">
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>266</v>
       </c>
@@ -4905,7 +4974,7 @@
       </c>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8">
       <c r="B3" s="1">
         <v>97</v>
       </c>
@@ -4920,7 +4989,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4" s="1">
         <v>970</v>
       </c>
@@ -4935,7 +5004,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>971</v>
       </c>
@@ -4950,7 +5019,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" s="1">
         <v>972</v>
       </c>
@@ -4965,7 +5034,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
         <v>973</v>
       </c>
@@ -4982,7 +5051,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>494</v>
+      </c>
       <c r="E8" s="3">
         <v>970018</v>
       </c>
@@ -4993,7 +5068,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8">
       <c r="E9" s="3">
         <v>972001</v>
       </c>
@@ -5002,7 +5077,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8">
       <c r="E10" s="3">
         <v>972002</v>
       </c>
@@ -5011,7 +5086,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="E11" s="3">
         <v>971019</v>
       </c>
@@ -5022,7 +5097,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="E12" s="3">
         <v>972003</v>
       </c>
@@ -5031,7 +5106,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="E13" s="3">
         <v>921003</v>
       </c>
@@ -5042,7 +5117,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8">
       <c r="E14" s="3">
         <v>921004</v>
       </c>
@@ -5053,7 +5128,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
+      <c r="C15" t="s">
+        <v>495</v>
+      </c>
       <c r="E15" s="3">
         <v>921005</v>
       </c>
@@ -5064,7 +5142,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
+      <c r="C16" t="s">
+        <v>496</v>
+      </c>
       <c r="E16" s="3">
         <v>923003</v>
       </c>
@@ -5073,7 +5154,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7">
       <c r="E17" s="3">
         <v>923004</v>
       </c>
@@ -5082,7 +5163,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7">
       <c r="E18" s="3">
         <v>923005</v>
       </c>
@@ -5091,7 +5172,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7">
       <c r="E19" s="3">
         <v>923006</v>
       </c>
@@ -5099,6 +5180,72 @@
         <v>437</v>
       </c>
       <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5107,14 +5254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853732A2-D0FD-4838-8684-FC0906CF08E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
@@ -5131,12 +5278,12 @@
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14">
       <c r="K1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14">
       <c r="B2" s="26" t="s">
         <v>273</v>
       </c>
@@ -5170,7 +5317,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="B3" s="28" t="s">
         <v>277</v>
       </c>
@@ -5202,7 +5349,7 @@
       </c>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
         <v>283</v>
       </c>
@@ -5230,7 +5377,7 @@
       </c>
       <c r="N4" s="32"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
@@ -5245,10 +5392,10 @@
         <v>288</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="K5" s="30">
         <v>912002</v>
       </c>
@@ -5260,7 +5407,7 @@
       </c>
       <c r="N5" s="32"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="B6" s="28" t="s">
         <v>289</v>
       </c>
@@ -5288,7 +5435,7 @@
       </c>
       <c r="N6" s="32"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="B7" s="28" t="s">
         <v>293</v>
       </c>
@@ -5316,7 +5463,7 @@
       </c>
       <c r="N7" s="32"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="B8" s="28" t="s">
         <v>297</v>
       </c>
@@ -5344,7 +5491,7 @@
       </c>
       <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="B9" s="28" t="s">
         <v>297</v>
       </c>
@@ -5372,7 +5519,7 @@
       </c>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14">
       <c r="B10" s="28" t="s">
         <v>297</v>
       </c>
@@ -5400,7 +5547,7 @@
       </c>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="B11" s="28" t="s">
         <v>306</v>
       </c>
@@ -5428,7 +5575,7 @@
       </c>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5452,7 +5599,7 @@
       </c>
       <c r="N12" s="32"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5476,7 +5623,7 @@
       </c>
       <c r="N13" s="32"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5500,7 +5647,7 @@
       </c>
       <c r="N14" s="32"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5524,7 +5671,7 @@
       </c>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5548,7 +5695,7 @@
       </c>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5572,7 +5719,7 @@
       </c>
       <c r="N17" s="32"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5596,7 +5743,7 @@
       </c>
       <c r="N18" s="32"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14">
       <c r="E19" s="28" t="s">
         <v>321</v>
       </c>
@@ -5614,7 +5761,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14">
       <c r="E20" s="28" t="s">
         <v>322</v>
       </c>
@@ -5632,7 +5779,7 @@
       </c>
       <c r="N20" s="32"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14">
       <c r="K21" s="30">
         <v>970001</v>
       </c>
@@ -5644,7 +5791,7 @@
       </c>
       <c r="N21" s="32"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14">
       <c r="K22" s="30">
         <v>970002</v>
       </c>
@@ -5656,7 +5803,7 @@
       </c>
       <c r="N22" s="32"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14">
       <c r="K23" s="30">
         <v>970003</v>
       </c>
@@ -5670,7 +5817,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14">
       <c r="K24" s="30">
         <v>970004</v>
       </c>
@@ -5682,7 +5829,7 @@
       </c>
       <c r="N24" s="32"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14">
       <c r="K25" s="30">
         <v>970005</v>
       </c>
@@ -5694,7 +5841,7 @@
       </c>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14">
       <c r="K26" s="30">
         <v>970006</v>
       </c>
@@ -5706,7 +5853,7 @@
       </c>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14">
       <c r="K27" s="30">
         <v>970008</v>
       </c>
@@ -5718,7 +5865,7 @@
       </c>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14">
       <c r="K28" s="30">
         <v>970009</v>
       </c>
@@ -5730,7 +5877,7 @@
       </c>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14">
       <c r="K29" s="30">
         <v>971001</v>
       </c>
@@ -5744,7 +5891,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14">
       <c r="K30" s="30">
         <v>971002</v>
       </c>
@@ -5756,7 +5903,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14">
       <c r="K31" s="30">
         <v>971003</v>
       </c>
@@ -5770,7 +5917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14">
       <c r="K32" s="30">
         <v>971004</v>
       </c>
@@ -5784,7 +5931,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:14">
       <c r="K33" s="30">
         <v>971005</v>
       </c>
@@ -5796,7 +5943,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:14">
       <c r="K34" s="30">
         <v>971006</v>
       </c>
@@ -5808,7 +5955,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:14">
       <c r="K35" s="30">
         <v>971007</v>
       </c>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7A518-2052-43D1-9516-3128A94690B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14385" yWindow="4530" windowWidth="14325" windowHeight="10800" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
     <sheet name="캐릭터 스킬" sheetId="2" r:id="rId2"/>
     <sheet name="스킬 리스트" sheetId="3" r:id="rId3"/>
     <sheet name="리스트" sheetId="4" r:id="rId4"/>
+    <sheet name="음향" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="535">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1966,14 +1968,117 @@
   </si>
   <si>
     <t>폭파 시작용 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음향 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음향 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantasy-Forest-Battle</t>
+  </si>
+  <si>
+    <t>Stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲 스테이지 1 시작 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-Seas-Adventures</t>
+  </si>
+  <si>
+    <t>Summertime-Romance</t>
+  </si>
+  <si>
+    <t>Victory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅토리 UI생성 이후 1초 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래딧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UseMusic/Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UseMusic/ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래딧 영상 올라올때?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crusaders-Approaching</t>
+  </si>
+  <si>
+    <t>2스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 스테이지 2 시작 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North-Ridge</t>
+  </si>
+  <si>
+    <t>인트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 UI 및 튜토리얼 &amp; 스테이지 선택에서 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2464,7 +2569,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2614,9 +2719,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2961,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -2972,7 +3074,7 @@
       <selection pane="bottomRight" activeCell="B24" sqref="B24:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
@@ -2989,20 +3091,20 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>222</v>
       </c>
@@ -3043,8 +3145,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="52" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3084,8 +3186,8 @@
         <v>972002</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="53"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3120,8 +3222,8 @@
         <v>972001</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="53"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="52"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3153,8 +3255,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B7" s="54"/>
+    <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="53"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -3192,8 +3294,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="53" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3224,8 +3326,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="53"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="52"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3254,8 +3356,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="53"/>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="52"/>
       <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
@@ -3284,8 +3386,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B11" s="53"/>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="52"/>
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
@@ -3314,8 +3416,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="55" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="54" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3346,8 +3448,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="56"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="55"/>
       <c r="C13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3376,8 +3478,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="56"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="55"/>
       <c r="C14" s="15" t="s">
         <v>68</v>
       </c>
@@ -3406,8 +3508,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B15" s="57"/>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="56"/>
       <c r="C15" s="16" t="s">
         <v>71</v>
       </c>
@@ -3436,7 +3538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
         <v>223</v>
       </c>
@@ -3468,7 +3570,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="40" t="s">
         <v>230</v>
       </c>
@@ -3500,7 +3602,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="40" t="s">
         <v>438</v>
       </c>
@@ -3532,7 +3634,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="40" t="s">
         <v>447</v>
       </c>
@@ -3564,7 +3666,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
         <v>447</v>
       </c>
@@ -3596,7 +3698,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="40" t="s">
         <v>475</v>
       </c>
@@ -3628,7 +3730,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="40" t="s">
         <v>475</v>
       </c>
@@ -3660,7 +3762,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>480</v>
       </c>
@@ -3692,7 +3794,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="46" t="s">
         <v>238</v>
       </c>
@@ -3724,7 +3826,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="46" t="s">
         <v>238</v>
       </c>
@@ -3756,7 +3858,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="46" t="s">
         <v>466</v>
       </c>
@@ -3788,7 +3890,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="46" t="s">
         <v>239</v>
       </c>
@@ -3820,7 +3922,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="44" t="s">
         <v>233</v>
       </c>
@@ -3852,7 +3954,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="44" t="s">
         <v>466</v>
       </c>
@@ -3884,7 +3986,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="44" t="s">
         <v>237</v>
       </c>
@@ -3916,7 +4018,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="48" t="s">
         <v>456</v>
       </c>
@@ -3948,7 +4050,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="44" t="s">
         <v>465</v>
       </c>
@@ -3980,26 +4082,26 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="5:11">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="5:11">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="5:11">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="5:11">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K36" s="1"/>
     </row>
-    <row r="45" spans="5:11">
-      <c r="E45" s="58"/>
-    </row>
-    <row r="46" spans="5:11">
-      <c r="E46" s="58"/>
-    </row>
-    <row r="47" spans="5:11">
-      <c r="E47" s="58"/>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="57"/>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="57"/>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E47" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4016,21 +4118,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C119"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="34" t="s">
         <v>193</v>
       </c>
@@ -4038,7 +4140,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>75</v>
       </c>
@@ -4046,31 +4148,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="36" t="s">
         <v>256</v>
       </c>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
         <v>79</v>
       </c>
@@ -4078,19 +4180,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="36" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
         <v>83</v>
       </c>
@@ -4098,19 +4200,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="36" t="s">
         <v>87</v>
       </c>
@@ -4118,27 +4220,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="55" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="56"/>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="C16" s="55"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="56"/>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="36" t="s">
         <v>92</v>
       </c>
@@ -4146,7 +4248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="36" t="s">
         <v>94</v>
       </c>
@@ -4154,13 +4256,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="36" t="s">
         <v>207</v>
       </c>
@@ -4168,13 +4270,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
         <v>205</v>
       </c>
@@ -4182,7 +4284,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
         <v>206</v>
       </c>
@@ -4190,7 +4292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
         <v>96</v>
       </c>
@@ -4198,7 +4300,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="36" t="s">
         <v>98</v>
       </c>
@@ -4206,7 +4308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="s">
         <v>100</v>
       </c>
@@ -4214,13 +4316,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
         <v>102</v>
       </c>
@@ -4228,7 +4330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="36" t="s">
         <v>104</v>
       </c>
@@ -4236,13 +4338,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
         <v>217</v>
       </c>
@@ -4250,7 +4352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="36" t="s">
         <v>108</v>
       </c>
@@ -4258,7 +4360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="36" t="s">
         <v>110</v>
       </c>
@@ -4266,13 +4368,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="23"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
         <v>113</v>
       </c>
@@ -4280,7 +4382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="36" t="s">
         <v>115</v>
       </c>
@@ -4288,13 +4390,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="23"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
         <v>118</v>
       </c>
@@ -4302,13 +4404,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="23"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="36" t="s">
         <v>120</v>
       </c>
@@ -4316,7 +4418,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="36" t="s">
         <v>121</v>
       </c>
@@ -4324,7 +4426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="36" t="s">
         <v>123</v>
       </c>
@@ -4332,7 +4434,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="36" t="s">
         <v>125</v>
       </c>
@@ -4340,7 +4442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="36" t="s">
         <v>126</v>
       </c>
@@ -4348,7 +4450,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="36" t="s">
         <v>128</v>
       </c>
@@ -4356,7 +4458,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="36" t="s">
         <v>129</v>
       </c>
@@ -4364,7 +4466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="36" t="s">
         <v>130</v>
       </c>
@@ -4372,7 +4474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="36" t="s">
         <v>392</v>
       </c>
@@ -4380,13 +4482,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="23"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="36" t="s">
         <v>133</v>
       </c>
@@ -4394,19 +4496,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C52" s="23"/>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="36" t="s">
         <v>136</v>
       </c>
@@ -4414,7 +4516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="36" t="s">
         <v>137</v>
       </c>
@@ -4422,7 +4524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="36" t="s">
         <v>138</v>
       </c>
@@ -4430,7 +4532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="36" t="s">
         <v>201</v>
       </c>
@@ -4438,7 +4540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="36" t="s">
         <v>139</v>
       </c>
@@ -4446,7 +4548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="36" t="s">
         <v>140</v>
       </c>
@@ -4454,7 +4556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="36" t="s">
         <v>210</v>
       </c>
@@ -4462,7 +4564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="36" t="s">
         <v>218</v>
       </c>
@@ -4470,7 +4572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="36" t="s">
         <v>431</v>
       </c>
@@ -4478,7 +4580,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
         <v>142</v>
       </c>
@@ -4486,7 +4588,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="36" t="s">
         <v>432</v>
       </c>
@@ -4494,19 +4596,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="36" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="23"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
         <v>433</v>
       </c>
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="36" t="s">
         <v>434</v>
       </c>
@@ -4514,7 +4616,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="36" t="s">
         <v>435</v>
       </c>
@@ -4522,7 +4624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="36" t="s">
         <v>204</v>
       </c>
@@ -4530,13 +4632,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="36" t="s">
         <v>148</v>
       </c>
       <c r="C70" s="23"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="36" t="s">
         <v>147</v>
       </c>
@@ -4544,7 +4646,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
         <v>150</v>
       </c>
@@ -4552,7 +4654,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="36" t="s">
         <v>152</v>
       </c>
@@ -4560,7 +4662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
@@ -4568,13 +4670,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="23"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="36" t="s">
         <v>211</v>
       </c>
@@ -4582,7 +4684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="36" t="s">
         <v>154</v>
       </c>
@@ -4590,7 +4692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="36" t="s">
         <v>216</v>
       </c>
@@ -4598,7 +4700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="36" t="s">
         <v>393</v>
       </c>
@@ -4606,7 +4708,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="36" t="s">
         <v>158</v>
       </c>
@@ -4614,13 +4716,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="23"/>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" s="36" t="s">
         <v>215</v>
       </c>
@@ -4628,7 +4730,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" s="36" t="s">
         <v>429</v>
       </c>
@@ -4636,7 +4738,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" s="36" t="s">
         <v>163</v>
       </c>
@@ -4644,7 +4746,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" s="36" t="s">
         <v>165</v>
       </c>
@@ -4652,7 +4754,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="36" t="s">
         <v>198</v>
       </c>
@@ -4660,7 +4762,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" s="36" t="s">
         <v>167</v>
       </c>
@@ -4668,7 +4770,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" s="36" t="s">
         <v>403</v>
       </c>
@@ -4676,7 +4778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" s="36" t="s">
         <v>169</v>
       </c>
@@ -4684,7 +4786,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" s="36" t="s">
         <v>417</v>
       </c>
@@ -4692,7 +4794,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" s="36" t="s">
         <v>202</v>
       </c>
@@ -4700,7 +4802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="36" t="s">
         <v>172</v>
       </c>
@@ -4708,7 +4810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" s="36" t="s">
         <v>430</v>
       </c>
@@ -4716,7 +4818,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" s="36" t="s">
         <v>175</v>
       </c>
@@ -4724,7 +4826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" s="36" t="s">
         <v>214</v>
       </c>
@@ -4732,7 +4834,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" s="36" t="s">
         <v>401</v>
       </c>
@@ -4740,7 +4842,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="36" t="s">
         <v>203</v>
       </c>
@@ -4748,7 +4850,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="36" t="s">
         <v>402</v>
       </c>
@@ -4756,7 +4858,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="36" t="s">
         <v>178</v>
       </c>
@@ -4764,7 +4866,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" s="36" t="s">
         <v>196</v>
       </c>
@@ -4772,7 +4874,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" s="36" t="s">
         <v>180</v>
       </c>
@@ -4780,7 +4882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="36" t="s">
         <v>181</v>
       </c>
@@ -4788,7 +4890,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" s="36" t="s">
         <v>182</v>
       </c>
@@ -4796,7 +4898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" s="36" t="s">
         <v>183</v>
       </c>
@@ -4804,7 +4906,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" s="36" t="s">
         <v>184</v>
       </c>
@@ -4812,7 +4914,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" s="36" t="s">
         <v>186</v>
       </c>
@@ -4820,7 +4922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="36" t="s">
         <v>187</v>
       </c>
@@ -4828,7 +4930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" s="36" t="s">
         <v>188</v>
       </c>
@@ -4836,7 +4938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" s="36" t="s">
         <v>197</v>
       </c>
@@ -4844,7 +4946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" s="36" t="s">
         <v>395</v>
       </c>
@@ -4852,7 +4954,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" s="36" t="s">
         <v>397</v>
       </c>
@@ -4860,7 +4962,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" s="36" t="s">
         <v>404</v>
       </c>
@@ -4868,7 +4970,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="36" t="s">
         <v>406</v>
       </c>
@@ -4876,7 +4978,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="36" t="s">
         <v>408</v>
       </c>
@@ -4884,7 +4986,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="17.25" thickBot="1">
+    <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="37" t="s">
         <v>410</v>
       </c>
@@ -4892,7 +4994,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="38" t="s">
         <v>412</v>
       </c>
@@ -4900,7 +5002,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="38" t="s">
         <v>414</v>
       </c>
@@ -4908,7 +5010,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>423</v>
       </c>
@@ -4916,7 +5018,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>424</v>
       </c>
@@ -4934,14 +5036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
@@ -4952,10 +5054,10 @@
     <col min="8" max="8" width="2.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:8" s="1" customFormat="1">
+    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>266</v>
       </c>
@@ -4974,7 +5076,7 @@
       </c>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>97</v>
       </c>
@@ -4989,7 +5091,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>970</v>
       </c>
@@ -5004,7 +5106,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>971</v>
       </c>
@@ -5019,7 +5121,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>972</v>
       </c>
@@ -5034,7 +5136,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>973</v>
       </c>
@@ -5051,7 +5153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>493</v>
       </c>
@@ -5068,7 +5170,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E9" s="3">
         <v>972001</v>
       </c>
@@ -5077,7 +5179,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E10" s="3">
         <v>972002</v>
       </c>
@@ -5086,7 +5188,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E11" s="3">
         <v>971019</v>
       </c>
@@ -5097,7 +5199,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E12" s="3">
         <v>972003</v>
       </c>
@@ -5106,7 +5208,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E13" s="3">
         <v>921003</v>
       </c>
@@ -5117,7 +5219,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E14" s="3">
         <v>921004</v>
       </c>
@@ -5128,7 +5230,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>495</v>
       </c>
@@ -5142,7 +5244,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>496</v>
       </c>
@@ -5154,7 +5256,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="5:7">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <v>923004</v>
       </c>
@@ -5163,7 +5265,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="3">
         <v>923005</v>
       </c>
@@ -5172,7 +5274,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="5:7">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" s="3">
         <v>923006</v>
       </c>
@@ -5181,7 +5283,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="5:7">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>493</v>
       </c>
@@ -5192,7 +5294,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="5:7">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>493</v>
       </c>
@@ -5203,18 +5305,18 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="5:7">
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>501</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="5:7">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>493</v>
       </c>
@@ -5225,8 +5327,8 @@
         <v>503</v>
       </c>
     </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="50" t="s">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -5236,8 +5338,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="50" t="s">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -5254,14 +5356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
@@ -5278,12 +5380,12 @@
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>273</v>
       </c>
@@ -5317,7 +5419,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="28" t="s">
         <v>277</v>
       </c>
@@ -5349,7 +5451,7 @@
       </c>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="28" t="s">
         <v>283</v>
       </c>
@@ -5377,7 +5479,7 @@
       </c>
       <c r="N4" s="32"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
@@ -5392,10 +5494,10 @@
         <v>288</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="59"/>
       <c r="K5" s="30">
         <v>912002</v>
       </c>
@@ -5407,7 +5509,7 @@
       </c>
       <c r="N5" s="32"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>289</v>
       </c>
@@ -5435,7 +5537,7 @@
       </c>
       <c r="N6" s="32"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>293</v>
       </c>
@@ -5463,7 +5565,7 @@
       </c>
       <c r="N7" s="32"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>297</v>
       </c>
@@ -5491,7 +5593,7 @@
       </c>
       <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="28" t="s">
         <v>297</v>
       </c>
@@ -5519,7 +5621,7 @@
       </c>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
         <v>297</v>
       </c>
@@ -5547,7 +5649,7 @@
       </c>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
         <v>306</v>
       </c>
@@ -5575,7 +5677,7 @@
       </c>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5599,7 +5701,7 @@
       </c>
       <c r="N12" s="32"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5623,7 +5725,7 @@
       </c>
       <c r="N13" s="32"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5647,7 +5749,7 @@
       </c>
       <c r="N14" s="32"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5671,7 +5773,7 @@
       </c>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5695,7 +5797,7 @@
       </c>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5719,7 +5821,7 @@
       </c>
       <c r="N17" s="32"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5743,7 +5845,7 @@
       </c>
       <c r="N18" s="32"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E19" s="28" t="s">
         <v>321</v>
       </c>
@@ -5761,7 +5863,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E20" s="28" t="s">
         <v>322</v>
       </c>
@@ -5779,7 +5881,7 @@
       </c>
       <c r="N20" s="32"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K21" s="30">
         <v>970001</v>
       </c>
@@ -5791,7 +5893,7 @@
       </c>
       <c r="N21" s="32"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K22" s="30">
         <v>970002</v>
       </c>
@@ -5803,7 +5905,7 @@
       </c>
       <c r="N22" s="32"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K23" s="30">
         <v>970003</v>
       </c>
@@ -5817,7 +5919,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K24" s="30">
         <v>970004</v>
       </c>
@@ -5829,7 +5931,7 @@
       </c>
       <c r="N24" s="32"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K25" s="30">
         <v>970005</v>
       </c>
@@ -5841,7 +5943,7 @@
       </c>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K26" s="30">
         <v>970006</v>
       </c>
@@ -5853,7 +5955,7 @@
       </c>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K27" s="30">
         <v>970008</v>
       </c>
@@ -5865,7 +5967,7 @@
       </c>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K28" s="30">
         <v>970009</v>
       </c>
@@ -5877,7 +5979,7 @@
       </c>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K29" s="30">
         <v>971001</v>
       </c>
@@ -5891,7 +5993,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K30" s="30">
         <v>971002</v>
       </c>
@@ -5903,7 +6005,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K31" s="30">
         <v>971003</v>
       </c>
@@ -5917,7 +6019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K32" s="30">
         <v>971004</v>
       </c>
@@ -5931,7 +6033,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="11:14">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K33" s="30">
         <v>971005</v>
       </c>
@@ -5943,7 +6045,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="11:14">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K34" s="30">
         <v>971006</v>
       </c>
@@ -5955,7 +6057,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="11:14">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K35" s="30">
         <v>971007</v>
       </c>
@@ -5974,4 +6076,131 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A0CA8-E8D1-480E-8F8E-68C867D3DF13}">
+  <dimension ref="B2:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7A518-2052-43D1-9516-3128A94690B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8B900-F970-4F64-80EA-5F8CFAD9C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="538">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,6 +2071,17 @@
   </si>
   <si>
     <t>기본 UI 및 튜토리얼 &amp; 스테이지 선택에서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hazy-Darkness_Looping</t>
+  </si>
+  <si>
+    <t>패배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4121,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6080,10 +6091,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A0CA8-E8D1-480E-8F8E-68C867D3DF13}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6199,6 +6210,20 @@
         <v>534</v>
       </c>
     </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E8B900-F970-4F64-80EA-5F8CFAD9C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="544">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1944,10 +1943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ifri_ex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2082,14 +2077,42 @@
   </si>
   <si>
     <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Frost_Ball_8 1</t>
+  </si>
+  <si>
+    <t>사티러스 냉기 투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Exp_Hit_02 1</t>
+  </si>
+  <si>
+    <t>냉기 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicalCast 1 1</t>
+  </si>
+  <si>
+    <t>강력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴 투사체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,8 +2154,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2175,6 +2204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -2580,7 +2615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2732,6 +2767,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2759,6 +2797,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3074,7 +3115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -3082,10 +3123,10 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24:K27"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
@@ -3102,20 +3143,20 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1">
       <c r="B3" s="18" t="s">
         <v>222</v>
       </c>
@@ -3156,8 +3197,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="2:14">
+      <c r="B4" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3197,8 +3238,8 @@
         <v>972002</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
+    <row r="5" spans="2:14">
+      <c r="B5" s="53"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3233,8 +3274,8 @@
         <v>972001</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="52"/>
+    <row r="6" spans="2:14">
+      <c r="B6" s="53"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3266,8 +3307,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
+    <row r="7" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B7" s="54"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -3305,8 +3346,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3337,8 +3378,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="52"/>
+    <row r="9" spans="2:14">
+      <c r="B9" s="53"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3367,8 +3408,8 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
+    <row r="10" spans="2:14">
+      <c r="B10" s="53"/>
       <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
@@ -3397,8 +3438,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="52"/>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B11" s="53"/>
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
@@ -3427,8 +3468,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+    <row r="12" spans="2:14">
+      <c r="B12" s="55" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3459,8 +3500,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="55"/>
+    <row r="13" spans="2:14">
+      <c r="B13" s="56"/>
       <c r="C13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3489,8 +3530,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
+    <row r="14" spans="2:14">
+      <c r="B14" s="56"/>
       <c r="C14" s="15" t="s">
         <v>68</v>
       </c>
@@ -3519,8 +3560,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="56"/>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B15" s="57"/>
       <c r="C15" s="16" t="s">
         <v>71</v>
       </c>
@@ -3549,7 +3590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="42" t="s">
         <v>223</v>
       </c>
@@ -3581,7 +3622,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11">
       <c r="B17" s="40" t="s">
         <v>230</v>
       </c>
@@ -3613,7 +3654,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11">
       <c r="B18" s="40" t="s">
         <v>438</v>
       </c>
@@ -3645,7 +3686,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11">
       <c r="B19" s="40" t="s">
         <v>447</v>
       </c>
@@ -3677,7 +3718,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11">
       <c r="B20" s="40" t="s">
         <v>447</v>
       </c>
@@ -3709,7 +3750,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11">
       <c r="B21" s="40" t="s">
         <v>475</v>
       </c>
@@ -3741,7 +3782,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11">
       <c r="B22" s="40" t="s">
         <v>475</v>
       </c>
@@ -3773,7 +3814,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11">
       <c r="B23" s="40" t="s">
         <v>480</v>
       </c>
@@ -3805,7 +3846,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11">
       <c r="B24" s="46" t="s">
         <v>238</v>
       </c>
@@ -3837,7 +3878,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11">
       <c r="B25" s="46" t="s">
         <v>238</v>
       </c>
@@ -3869,7 +3910,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11">
       <c r="B26" s="46" t="s">
         <v>466</v>
       </c>
@@ -3901,7 +3942,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11">
       <c r="B27" s="46" t="s">
         <v>239</v>
       </c>
@@ -3933,7 +3974,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11">
       <c r="B28" s="44" t="s">
         <v>233</v>
       </c>
@@ -3965,7 +4006,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11">
       <c r="B29" s="44" t="s">
         <v>466</v>
       </c>
@@ -3997,7 +4038,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11">
       <c r="B30" s="44" t="s">
         <v>237</v>
       </c>
@@ -4029,7 +4070,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11">
       <c r="B31" s="48" t="s">
         <v>456</v>
       </c>
@@ -4061,7 +4102,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11">
       <c r="B32" s="44" t="s">
         <v>465</v>
       </c>
@@ -4093,26 +4134,26 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11">
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11">
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11">
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11">
       <c r="K36" s="1"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E45" s="57"/>
-    </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E46" s="57"/>
-    </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E47" s="57"/>
+    <row r="45" spans="5:11">
+      <c r="E45" s="58"/>
+    </row>
+    <row r="46" spans="5:11">
+      <c r="E46" s="58"/>
+    </row>
+    <row r="47" spans="5:11">
+      <c r="E47" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4129,21 +4170,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="49.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:3" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="B2" s="34" t="s">
         <v>193</v>
       </c>
@@ -4151,7 +4192,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3">
       <c r="B3" s="35" t="s">
         <v>75</v>
       </c>
@@ -4159,31 +4200,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3">
       <c r="B4" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="23"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3">
       <c r="B5" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3">
       <c r="B6" s="36" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3">
       <c r="B7" s="36" t="s">
         <v>256</v>
       </c>
       <c r="C7" s="23"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3">
       <c r="B8" s="36" t="s">
         <v>79</v>
       </c>
@@ -4191,19 +4232,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3">
       <c r="B9" s="36" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3">
       <c r="B10" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="23"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3">
       <c r="B11" s="36" t="s">
         <v>83</v>
       </c>
@@ -4211,19 +4252,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3">
       <c r="B12" s="36" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="23"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3">
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3">
       <c r="B14" s="36" t="s">
         <v>87</v>
       </c>
@@ -4231,27 +4272,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3">
       <c r="B15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3">
       <c r="B16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="55"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="36" t="s">
         <v>92</v>
       </c>
@@ -4259,7 +4300,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19" s="36" t="s">
         <v>94</v>
       </c>
@@ -4267,13 +4308,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C20" s="23"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="B21" s="36" t="s">
         <v>207</v>
       </c>
@@ -4281,13 +4322,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3">
       <c r="B22" s="36" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="36" t="s">
         <v>205</v>
       </c>
@@ -4295,7 +4336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="36" t="s">
         <v>206</v>
       </c>
@@ -4303,7 +4344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="36" t="s">
         <v>96</v>
       </c>
@@ -4311,7 +4352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="36" t="s">
         <v>98</v>
       </c>
@@ -4319,7 +4360,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3">
       <c r="B27" s="36" t="s">
         <v>100</v>
       </c>
@@ -4327,13 +4368,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3">
       <c r="B28" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="23"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3">
       <c r="B29" s="36" t="s">
         <v>102</v>
       </c>
@@ -4341,7 +4382,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3">
       <c r="B30" s="36" t="s">
         <v>104</v>
       </c>
@@ -4349,13 +4390,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3">
       <c r="B31" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C31" s="23"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3">
       <c r="B32" s="36" t="s">
         <v>217</v>
       </c>
@@ -4363,7 +4404,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3">
       <c r="B33" s="36" t="s">
         <v>108</v>
       </c>
@@ -4371,7 +4412,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3">
       <c r="B34" s="36" t="s">
         <v>110</v>
       </c>
@@ -4379,13 +4420,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3">
       <c r="B35" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="23"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3">
       <c r="B36" s="36" t="s">
         <v>113</v>
       </c>
@@ -4393,7 +4434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3">
       <c r="B37" s="36" t="s">
         <v>115</v>
       </c>
@@ -4401,13 +4442,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3">
       <c r="B38" s="36" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="23"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3">
       <c r="B39" s="36" t="s">
         <v>118</v>
       </c>
@@ -4415,13 +4456,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3">
       <c r="B40" s="36" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="23"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3">
       <c r="B41" s="36" t="s">
         <v>120</v>
       </c>
@@ -4429,7 +4470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3">
       <c r="B42" s="36" t="s">
         <v>121</v>
       </c>
@@ -4437,7 +4478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3">
       <c r="B43" s="36" t="s">
         <v>123</v>
       </c>
@@ -4445,7 +4486,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3">
       <c r="B44" s="36" t="s">
         <v>125</v>
       </c>
@@ -4453,7 +4494,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3">
       <c r="B45" s="36" t="s">
         <v>126</v>
       </c>
@@ -4461,7 +4502,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3">
       <c r="B46" s="36" t="s">
         <v>128</v>
       </c>
@@ -4469,7 +4510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3">
       <c r="B47" s="36" t="s">
         <v>129</v>
       </c>
@@ -4477,7 +4518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3">
       <c r="B48" s="36" t="s">
         <v>130</v>
       </c>
@@ -4485,7 +4526,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3">
       <c r="B49" s="36" t="s">
         <v>392</v>
       </c>
@@ -4493,13 +4534,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C50" s="23"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" s="36" t="s">
         <v>133</v>
       </c>
@@ -4507,19 +4548,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" s="36" t="s">
         <v>134</v>
       </c>
       <c r="C52" s="23"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" s="36" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="23"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3">
       <c r="B54" s="36" t="s">
         <v>136</v>
       </c>
@@ -4527,7 +4568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" s="36" t="s">
         <v>137</v>
       </c>
@@ -4535,7 +4576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" s="36" t="s">
         <v>138</v>
       </c>
@@ -4543,7 +4584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3">
       <c r="B57" s="36" t="s">
         <v>201</v>
       </c>
@@ -4551,7 +4592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" s="36" t="s">
         <v>139</v>
       </c>
@@ -4559,7 +4600,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3">
       <c r="B59" s="36" t="s">
         <v>140</v>
       </c>
@@ -4567,7 +4608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3">
       <c r="B60" s="36" t="s">
         <v>210</v>
       </c>
@@ -4575,7 +4616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3">
       <c r="B61" s="36" t="s">
         <v>218</v>
       </c>
@@ -4583,7 +4624,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" s="36" t="s">
         <v>431</v>
       </c>
@@ -4591,7 +4632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3">
       <c r="B63" s="36" t="s">
         <v>142</v>
       </c>
@@ -4599,7 +4640,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" s="36" t="s">
         <v>432</v>
       </c>
@@ -4607,19 +4648,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3">
       <c r="B65" s="36" t="s">
         <v>144</v>
       </c>
       <c r="C65" s="23"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3">
       <c r="B66" s="36" t="s">
         <v>433</v>
       </c>
       <c r="C66" s="23"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3">
       <c r="B67" s="36" t="s">
         <v>434</v>
       </c>
@@ -4627,7 +4668,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3">
       <c r="B68" s="36" t="s">
         <v>435</v>
       </c>
@@ -4635,7 +4676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3">
       <c r="B69" s="36" t="s">
         <v>204</v>
       </c>
@@ -4643,13 +4684,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3">
       <c r="B70" s="36" t="s">
         <v>148</v>
       </c>
       <c r="C70" s="23"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3">
       <c r="B71" s="36" t="s">
         <v>147</v>
       </c>
@@ -4657,7 +4698,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3">
       <c r="B72" s="36" t="s">
         <v>150</v>
       </c>
@@ -4665,7 +4706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3">
       <c r="B73" s="36" t="s">
         <v>152</v>
       </c>
@@ -4673,7 +4714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3">
       <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
@@ -4681,13 +4722,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3">
       <c r="B75" s="36" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="23"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3">
       <c r="B76" s="36" t="s">
         <v>211</v>
       </c>
@@ -4695,7 +4736,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3">
       <c r="B77" s="36" t="s">
         <v>154</v>
       </c>
@@ -4703,7 +4744,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3">
       <c r="B78" s="36" t="s">
         <v>216</v>
       </c>
@@ -4711,7 +4752,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3">
       <c r="B79" s="36" t="s">
         <v>393</v>
       </c>
@@ -4719,7 +4760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3">
       <c r="B80" s="36" t="s">
         <v>158</v>
       </c>
@@ -4727,13 +4768,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3">
       <c r="B81" s="36" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="23"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3">
       <c r="B82" s="36" t="s">
         <v>215</v>
       </c>
@@ -4741,7 +4782,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3">
       <c r="B83" s="36" t="s">
         <v>429</v>
       </c>
@@ -4749,7 +4790,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3">
       <c r="B84" s="36" t="s">
         <v>163</v>
       </c>
@@ -4757,7 +4798,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3">
       <c r="B85" s="36" t="s">
         <v>165</v>
       </c>
@@ -4765,7 +4806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3">
       <c r="B86" s="36" t="s">
         <v>198</v>
       </c>
@@ -4773,7 +4814,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3">
       <c r="B87" s="36" t="s">
         <v>167</v>
       </c>
@@ -4781,7 +4822,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:3">
       <c r="B88" s="36" t="s">
         <v>403</v>
       </c>
@@ -4789,7 +4830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:3">
       <c r="B89" s="36" t="s">
         <v>169</v>
       </c>
@@ -4797,7 +4838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:3">
       <c r="B90" s="36" t="s">
         <v>417</v>
       </c>
@@ -4805,7 +4846,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:3">
       <c r="B91" s="36" t="s">
         <v>202</v>
       </c>
@@ -4813,7 +4854,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:3">
       <c r="B92" s="36" t="s">
         <v>172</v>
       </c>
@@ -4821,7 +4862,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:3">
       <c r="B93" s="36" t="s">
         <v>430</v>
       </c>
@@ -4829,7 +4870,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:3">
       <c r="B94" s="36" t="s">
         <v>175</v>
       </c>
@@ -4837,7 +4878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:3">
       <c r="B95" s="36" t="s">
         <v>214</v>
       </c>
@@ -4845,7 +4886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:3">
       <c r="B96" s="36" t="s">
         <v>401</v>
       </c>
@@ -4853,7 +4894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3">
       <c r="B97" s="36" t="s">
         <v>203</v>
       </c>
@@ -4861,7 +4902,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3">
       <c r="B98" s="36" t="s">
         <v>402</v>
       </c>
@@ -4869,7 +4910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3">
       <c r="B99" s="36" t="s">
         <v>178</v>
       </c>
@@ -4877,7 +4918,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3">
       <c r="B100" s="36" t="s">
         <v>196</v>
       </c>
@@ -4885,7 +4926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3">
       <c r="B101" s="36" t="s">
         <v>180</v>
       </c>
@@ -4893,7 +4934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3">
       <c r="B102" s="36" t="s">
         <v>181</v>
       </c>
@@ -4901,7 +4942,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3">
       <c r="B103" s="36" t="s">
         <v>182</v>
       </c>
@@ -4909,7 +4950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3">
       <c r="B104" s="36" t="s">
         <v>183</v>
       </c>
@@ -4917,7 +4958,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3">
       <c r="B105" s="36" t="s">
         <v>184</v>
       </c>
@@ -4925,7 +4966,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3">
       <c r="B106" s="36" t="s">
         <v>186</v>
       </c>
@@ -4933,7 +4974,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3">
       <c r="B107" s="36" t="s">
         <v>187</v>
       </c>
@@ -4941,7 +4982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3">
       <c r="B108" s="36" t="s">
         <v>188</v>
       </c>
@@ -4949,7 +4990,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3">
       <c r="B109" s="36" t="s">
         <v>197</v>
       </c>
@@ -4957,7 +4998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3">
       <c r="B110" s="36" t="s">
         <v>395</v>
       </c>
@@ -4965,7 +5006,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3">
       <c r="B111" s="36" t="s">
         <v>397</v>
       </c>
@@ -4973,7 +5014,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3">
       <c r="B112" s="36" t="s">
         <v>404</v>
       </c>
@@ -4981,7 +5022,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3">
       <c r="B113" s="36" t="s">
         <v>406</v>
       </c>
@@ -4989,7 +5030,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3">
       <c r="B114" s="36" t="s">
         <v>408</v>
       </c>
@@ -4997,7 +5038,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" ht="17.25" thickBot="1">
       <c r="B115" s="37" t="s">
         <v>410</v>
       </c>
@@ -5005,7 +5046,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3">
       <c r="B116" s="38" t="s">
         <v>412</v>
       </c>
@@ -5013,7 +5054,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3">
       <c r="B117" s="38" t="s">
         <v>414</v>
       </c>
@@ -5021,7 +5062,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3">
       <c r="B118" t="s">
         <v>423</v>
       </c>
@@ -5029,7 +5070,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3">
       <c r="B119" t="s">
         <v>424</v>
       </c>
@@ -5047,14 +5088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
@@ -5065,10 +5106,10 @@
     <col min="8" max="8" width="2.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8">
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>266</v>
       </c>
@@ -5087,7 +5128,7 @@
       </c>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8">
       <c r="B3" s="1">
         <v>97</v>
       </c>
@@ -5102,7 +5143,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4" s="1">
         <v>970</v>
       </c>
@@ -5117,7 +5158,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>971</v>
       </c>
@@ -5132,7 +5173,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8">
       <c r="B6" s="1">
         <v>972</v>
       </c>
@@ -5147,7 +5188,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
         <v>973</v>
       </c>
@@ -5164,7 +5205,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
         <v>493</v>
       </c>
@@ -5181,7 +5222,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8">
       <c r="E9" s="3">
         <v>972001</v>
       </c>
@@ -5190,7 +5231,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8">
       <c r="E10" s="3">
         <v>972002</v>
       </c>
@@ -5199,7 +5240,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8">
       <c r="E11" s="3">
         <v>971019</v>
       </c>
@@ -5210,7 +5251,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8">
       <c r="E12" s="3">
         <v>972003</v>
       </c>
@@ -5219,7 +5260,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8">
       <c r="E13" s="3">
         <v>921003</v>
       </c>
@@ -5230,7 +5271,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8">
       <c r="E14" s="3">
         <v>921004</v>
       </c>
@@ -5241,7 +5282,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8">
       <c r="C15" t="s">
         <v>495</v>
       </c>
@@ -5255,7 +5296,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8">
       <c r="C16" t="s">
         <v>496</v>
       </c>
@@ -5267,7 +5308,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7">
       <c r="E17" s="3">
         <v>923004</v>
       </c>
@@ -5276,7 +5317,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7">
       <c r="E18" s="3">
         <v>923005</v>
       </c>
@@ -5285,7 +5326,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7">
       <c r="E19" s="3">
         <v>923006</v>
       </c>
@@ -5294,9 +5335,9 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="1" t="s">
-        <v>493</v>
+    <row r="20" spans="5:7">
+      <c r="E20" s="1">
+        <v>921012</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>491</v>
@@ -5305,9 +5346,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="1" t="s">
-        <v>493</v>
+    <row r="21" spans="5:7">
+      <c r="E21" s="50">
+        <v>921013</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>497</v>
@@ -5316,9 +5357,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="1" t="s">
-        <v>501</v>
+    <row r="22" spans="5:7">
+      <c r="E22" s="50">
+        <v>921014</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>499</v>
@@ -5327,54 +5368,96 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7">
       <c r="E23" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="5:7">
       <c r="E24" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="5:7">
       <c r="E25" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>507</v>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="50">
+        <v>921015</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" s="50">
+        <v>921016</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" s="1">
+        <v>923010</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" s="61">
+        <v>922005</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
@@ -5391,12 +5474,12 @@
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14">
       <c r="K1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14">
       <c r="B2" s="26" t="s">
         <v>273</v>
       </c>
@@ -5430,7 +5513,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="B3" s="28" t="s">
         <v>277</v>
       </c>
@@ -5462,7 +5545,7 @@
       </c>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="B4" s="28" t="s">
         <v>283</v>
       </c>
@@ -5490,7 +5573,7 @@
       </c>
       <c r="N4" s="32"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
@@ -5505,10 +5588,10 @@
         <v>288</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="K5" s="30">
         <v>912002</v>
       </c>
@@ -5520,7 +5603,7 @@
       </c>
       <c r="N5" s="32"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="B6" s="28" t="s">
         <v>289</v>
       </c>
@@ -5548,7 +5631,7 @@
       </c>
       <c r="N6" s="32"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="B7" s="28" t="s">
         <v>293</v>
       </c>
@@ -5576,7 +5659,7 @@
       </c>
       <c r="N7" s="32"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="B8" s="28" t="s">
         <v>297</v>
       </c>
@@ -5604,7 +5687,7 @@
       </c>
       <c r="N8" s="32"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="B9" s="28" t="s">
         <v>297</v>
       </c>
@@ -5632,7 +5715,7 @@
       </c>
       <c r="N9" s="32"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14">
       <c r="B10" s="28" t="s">
         <v>297</v>
       </c>
@@ -5660,7 +5743,7 @@
       </c>
       <c r="N10" s="32"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="B11" s="28" t="s">
         <v>306</v>
       </c>
@@ -5688,7 +5771,7 @@
       </c>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5712,7 +5795,7 @@
       </c>
       <c r="N12" s="32"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5736,7 +5819,7 @@
       </c>
       <c r="N13" s="32"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5760,7 +5843,7 @@
       </c>
       <c r="N14" s="32"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5784,7 +5867,7 @@
       </c>
       <c r="N15" s="32"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5808,7 +5891,7 @@
       </c>
       <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5832,7 +5915,7 @@
       </c>
       <c r="N17" s="32"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5856,7 +5939,7 @@
       </c>
       <c r="N18" s="32"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14">
       <c r="E19" s="28" t="s">
         <v>321</v>
       </c>
@@ -5874,7 +5957,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14">
       <c r="E20" s="28" t="s">
         <v>322</v>
       </c>
@@ -5892,7 +5975,7 @@
       </c>
       <c r="N20" s="32"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14">
       <c r="K21" s="30">
         <v>970001</v>
       </c>
@@ -5904,7 +5987,7 @@
       </c>
       <c r="N21" s="32"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14">
       <c r="K22" s="30">
         <v>970002</v>
       </c>
@@ -5916,7 +5999,7 @@
       </c>
       <c r="N22" s="32"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14">
       <c r="K23" s="30">
         <v>970003</v>
       </c>
@@ -5930,7 +6013,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14">
       <c r="K24" s="30">
         <v>970004</v>
       </c>
@@ -5942,7 +6025,7 @@
       </c>
       <c r="N24" s="32"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14">
       <c r="K25" s="30">
         <v>970005</v>
       </c>
@@ -5954,7 +6037,7 @@
       </c>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14">
       <c r="K26" s="30">
         <v>970006</v>
       </c>
@@ -5966,7 +6049,7 @@
       </c>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14">
       <c r="K27" s="30">
         <v>970008</v>
       </c>
@@ -5978,7 +6061,7 @@
       </c>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14">
       <c r="K28" s="30">
         <v>970009</v>
       </c>
@@ -5990,7 +6073,7 @@
       </c>
       <c r="N28" s="32"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14">
       <c r="K29" s="30">
         <v>971001</v>
       </c>
@@ -6004,7 +6087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14">
       <c r="K30" s="30">
         <v>971002</v>
       </c>
@@ -6016,7 +6099,7 @@
       </c>
       <c r="N30" s="32"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14">
       <c r="K31" s="30">
         <v>971003</v>
       </c>
@@ -6030,7 +6113,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14">
       <c r="K32" s="30">
         <v>971004</v>
       </c>
@@ -6044,7 +6127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:14">
       <c r="K33" s="30">
         <v>971005</v>
       </c>
@@ -6056,7 +6139,7 @@
       </c>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:14">
       <c r="K34" s="30">
         <v>971006</v>
       </c>
@@ -6068,7 +6151,7 @@
       </c>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:14">
       <c r="K35" s="30">
         <v>971007</v>
       </c>
@@ -6090,14 +6173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A0CA8-E8D1-480E-8F8E-68C867D3DF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -6108,120 +6191,120 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>525</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F5" s="33" t="s">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="F7" s="33" t="s">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" activeTab="2"/>
+    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="546">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1951,157 +1951,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>불기둥 이프리트 시전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ifri_buster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭파 시작용 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음향 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음향 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fantasy-Forest-Battle</t>
+  </si>
+  <si>
+    <t>Stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲 스테이지 1 시작 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-Seas-Adventures</t>
+  </si>
+  <si>
+    <t>Summertime-Romance</t>
+  </si>
+  <si>
+    <t>Victory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅토리 UI생성 이후 1초 뒤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래딧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UseMusic/Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UseMusic/ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래딧 영상 올라올때?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crusaders-Approaching</t>
+  </si>
+  <si>
+    <t>2스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 스테이지 2 시작 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North-Ridge</t>
+  </si>
+  <si>
+    <t>인트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 UI 및 튜토리얼 &amp; 스테이지 선택에서 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hazy-Darkness_Looping</t>
+  </si>
+  <si>
+    <t>패배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Frost_Ball_8 1</t>
+  </si>
+  <si>
+    <t>사티러스 냉기 투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAX_Exp_Hit_02 1</t>
+  </si>
+  <si>
+    <t>냉기 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicalCast 1 1</t>
+  </si>
+  <si>
+    <t>강력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴 투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ifri_Explosion_start</t>
-  </si>
-  <si>
-    <t>불기둥 이프리트 시전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ifri_buster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭파 시작용 이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음향 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음향 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fantasy-Forest-Battle</t>
-  </si>
-  <si>
-    <t>Stage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲 스테이지 1 시작 이후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>High-Seas-Adventures</t>
-  </si>
-  <si>
-    <t>Summertime-Romance</t>
-  </si>
-  <si>
-    <t>Victory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅토리 UI생성 이후 1초 뒤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승리UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크래딧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장 위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/UseMusic/Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/UseMusic/ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크래딧 영상 올라올때?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crusaders-Approaching</t>
-  </si>
-  <si>
-    <t>2스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전 스테이지 2 시작 이후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>North-Ridge</t>
-  </si>
-  <si>
-    <t>인트로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 UI 및 튜토리얼 &amp; 스테이지 선택에서 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hazy-Darkness_Looping</t>
-  </si>
-  <si>
-    <t>패배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Frost_Ball_8 1</t>
-  </si>
-  <si>
-    <t>사티러스 냉기 투사체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAX_Exp_Hit_02 1</t>
-  </si>
-  <si>
-    <t>냉기 피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicalCast 1 1</t>
-  </si>
-  <si>
-    <t>강력 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스턴 투사체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2615,7 +2624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2770,6 +2779,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2797,9 +2815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3118,12 +3133,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3144,17 +3159,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1">
       <c r="B3" s="18" t="s">
@@ -3198,7 +3213,7 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3239,7 +3254,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="53"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3275,7 +3290,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="53"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3308,7 +3323,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B7" s="54"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -3347,7 +3362,7 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3379,7 +3394,7 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="53"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3409,7 +3424,7 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="53"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
@@ -3439,7 +3454,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B11" s="53"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="19" t="s">
         <v>51</v>
       </c>
@@ -3469,7 +3484,7 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -3501,7 +3516,7 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3531,7 +3546,7 @@
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="56"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="15" t="s">
         <v>68</v>
       </c>
@@ -3561,7 +3576,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B15" s="57"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="16" t="s">
         <v>71</v>
       </c>
@@ -3622,7 +3637,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12">
       <c r="B17" s="40" t="s">
         <v>230</v>
       </c>
@@ -3654,7 +3669,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:12">
       <c r="B18" s="40" t="s">
         <v>438</v>
       </c>
@@ -3686,7 +3701,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12">
       <c r="B19" s="40" t="s">
         <v>447</v>
       </c>
@@ -3718,7 +3733,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:12">
       <c r="B20" s="40" t="s">
         <v>447</v>
       </c>
@@ -3750,7 +3765,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:12">
       <c r="B21" s="40" t="s">
         <v>475</v>
       </c>
@@ -3781,8 +3796,11 @@
       <c r="K21" s="41" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="L21" s="51" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="40" t="s">
         <v>475</v>
       </c>
@@ -3814,7 +3832,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:12">
       <c r="B23" s="40" t="s">
         <v>480</v>
       </c>
@@ -3845,8 +3863,11 @@
       <c r="K23" s="41" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="24" spans="2:11">
+      <c r="L23" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="46" t="s">
         <v>238</v>
       </c>
@@ -3878,7 +3899,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:12">
       <c r="B25" s="46" t="s">
         <v>238</v>
       </c>
@@ -3909,8 +3930,11 @@
       <c r="K25" s="47" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="26" spans="2:11">
+      <c r="L25" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="46" t="s">
         <v>466</v>
       </c>
@@ -3942,7 +3966,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:12">
       <c r="B27" s="46" t="s">
         <v>239</v>
       </c>
@@ -3974,7 +3998,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:12">
       <c r="B28" s="44" t="s">
         <v>233</v>
       </c>
@@ -4006,7 +4030,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:12">
       <c r="B29" s="44" t="s">
         <v>466</v>
       </c>
@@ -4038,7 +4062,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:12">
       <c r="B30" s="44" t="s">
         <v>237</v>
       </c>
@@ -4070,7 +4094,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:12">
       <c r="B31" s="48" t="s">
         <v>456</v>
       </c>
@@ -4102,7 +4126,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:12">
       <c r="B32" s="44" t="s">
         <v>465</v>
       </c>
@@ -4133,6 +4157,9 @@
       <c r="K32" s="45" t="s">
         <v>469</v>
       </c>
+      <c r="L32" s="51" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="33" spans="5:11">
       <c r="K33" s="1"/>
@@ -4147,13 +4174,13 @@
       <c r="K36" s="1"/>
     </row>
     <row r="45" spans="5:11">
-      <c r="E45" s="58"/>
+      <c r="E45" s="61"/>
     </row>
     <row r="46" spans="5:11">
-      <c r="E46" s="58"/>
+      <c r="E46" s="61"/>
     </row>
     <row r="47" spans="5:11">
-      <c r="E47" s="58"/>
+      <c r="E47" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4276,7 +4303,7 @@
       <c r="B15" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="59" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4284,13 +4311,13 @@
       <c r="B16" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="59"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="36" t="s">
@@ -5089,10 +5116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5369,8 +5396,8 @@
       </c>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="1" t="s">
-        <v>493</v>
+      <c r="E23" s="53">
+        <v>921017</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>501</v>
@@ -5380,25 +5407,25 @@
       </c>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="1" t="s">
-        <v>493</v>
+      <c r="E24" s="51">
+        <v>921018</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G24" s="1" t="s">
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="51">
+        <v>921019</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="26" spans="5:7">
@@ -5406,10 +5433,10 @@
         <v>921015</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -5417,10 +5444,10 @@
         <v>921016</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -5428,19 +5455,22 @@
         <v>923010</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G28" s="1" t="s">
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" s="52">
+        <v>922005</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="5:7">
-      <c r="E29" s="61">
-        <v>922005</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>543</v>
-      </c>
+    <row r="30" spans="5:7">
+      <c r="E30" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5588,10 +5618,10 @@
         <v>288</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="60"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="30">
         <v>912002</v>
       </c>
@@ -6193,118 +6223,118 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="F3" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>517</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="33" t="s">
         <v>524</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="33" t="s">
         <v>528</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="33" t="s">
         <v>532</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800"/>
+    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="547">
   <si>
     <t>스킬 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2111,6 +2111,10 @@
   </si>
   <si>
     <t>제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까지 되어있는데 내가 내용을 모름 ㅋㅋㅋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3133,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
@@ -4200,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C115"/>
     </sheetView>
   </sheetViews>
@@ -5116,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H30"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5471,6 +5475,14 @@
     </row>
     <row r="30" spans="5:7">
       <c r="E30" s="51"/>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="1">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>546</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelData/Data_Table/보스_임시_파일.xlsx
+++ b/ExcelData/Data_Table/보스_임시_파일.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" activeTab="2"/>
+    <workbookView xWindow="10590" yWindow="3450" windowWidth="13650" windowHeight="10800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="보스 스킬" sheetId="1" r:id="rId1"/>
@@ -3142,7 +3142,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5122,7 +5122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -5495,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
